--- a/development/mini games/economy/prices.xlsx
+++ b/development/mini games/economy/prices.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="11">
   <si>
     <t>player buy price</t>
   </si>
@@ -55,7 +55,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,16 +63,52 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -80,14 +116,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Input" xfId="3" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -387,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="H17" sqref="H17:H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -407,19 +467,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G1" t="s">
@@ -428,10 +488,10 @@
       <c r="H1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="K1" t="s">
@@ -630,15 +690,15 @@
         <f>F7/300</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="I7" t="e">
+      <c r="I7" s="3" t="e">
         <f>D7/(G7-H7)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J7" t="e">
+      <c r="J7" s="3" t="e">
         <f>(I7*(1.5+(E7-F7)/B7))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K7" t="e">
+      <c r="K7" s="3" t="e">
         <f>J7/I7</f>
         <v>#DIV/0!</v>
       </c>
@@ -928,6 +988,170 @@
       <c r="K15">
         <f t="shared" si="17"/>
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17">
+        <v>30000</v>
+      </c>
+      <c r="C17">
+        <v>300000</v>
+      </c>
+      <c r="D17">
+        <f>(B17/C17)*100</f>
+        <v>10</v>
+      </c>
+      <c r="E17">
+        <v>100</v>
+      </c>
+      <c r="F17">
+        <v>100</v>
+      </c>
+      <c r="G17">
+        <f>(B17/E17)/30</f>
+        <v>10</v>
+      </c>
+      <c r="H17" s="3">
+        <f>F17/300</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I17">
+        <f t="shared" ref="I17:I20" si="18">D17/(G17-H17)</f>
+        <v>1.0344827586206897</v>
+      </c>
+      <c r="J17">
+        <f>(I17*(1.5+(E17-F17)/B17))</f>
+        <v>1.5517241379310347</v>
+      </c>
+      <c r="K17">
+        <f>J17/I17</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <v>30000</v>
+      </c>
+      <c r="C18">
+        <v>300000</v>
+      </c>
+      <c r="D18">
+        <f>(B18/C18)*100</f>
+        <v>10</v>
+      </c>
+      <c r="E18">
+        <v>100</v>
+      </c>
+      <c r="F18">
+        <v>200</v>
+      </c>
+      <c r="G18">
+        <f>(B18/E18)/30</f>
+        <v>10</v>
+      </c>
+      <c r="H18" s="3">
+        <f>F18/300</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="18"/>
+        <v>1.0714285714285714</v>
+      </c>
+      <c r="J18">
+        <f>(I18*(1.5+(E18-F18)/B18))</f>
+        <v>1.6035714285714284</v>
+      </c>
+      <c r="K18">
+        <f>J18/I18</f>
+        <v>1.4966666666666666</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19">
+        <v>30000</v>
+      </c>
+      <c r="C19">
+        <v>300000</v>
+      </c>
+      <c r="D19">
+        <f t="shared" ref="D19:D20" si="19">(B19/C19)*100</f>
+        <v>10</v>
+      </c>
+      <c r="E19">
+        <v>100</v>
+      </c>
+      <c r="F19">
+        <v>300</v>
+      </c>
+      <c r="G19">
+        <f t="shared" ref="G19:G20" si="20">(B19/E19)/30</f>
+        <v>10</v>
+      </c>
+      <c r="H19" s="3">
+        <f>F19/300</f>
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="18"/>
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="J19">
+        <f t="shared" ref="J19:J20" si="21">(I19*(1.5+(E19-F19)/B19))</f>
+        <v>1.6592592592592594</v>
+      </c>
+      <c r="K19">
+        <f t="shared" ref="K19:K20" si="22">J19/I19</f>
+        <v>1.4933333333333334</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20">
+        <v>30000</v>
+      </c>
+      <c r="C20">
+        <v>300000</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="19"/>
+        <v>10</v>
+      </c>
+      <c r="E20">
+        <v>100</v>
+      </c>
+      <c r="F20">
+        <v>400</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="20"/>
+        <v>10</v>
+      </c>
+      <c r="H20" s="3">
+        <f>F20/300</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="18"/>
+        <v>1.153846153846154</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="21"/>
+        <v>1.7192307692307693</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="22"/>
+        <v>1.49</v>
       </c>
     </row>
   </sheetData>

--- a/development/mini games/economy/prices.xlsx
+++ b/development/mini games/economy/prices.xlsx
@@ -450,7 +450,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17:H20"/>
+      <selection activeCell="I7" sqref="I7:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -519,20 +519,20 @@
         <v>100</v>
       </c>
       <c r="G2">
-        <f>(B2/E2)/30</f>
+        <f t="shared" ref="G2:G5" si="0">(B2/(E2*30))</f>
         <v>10</v>
       </c>
       <c r="H2">
-        <f>F2/300</f>
-        <v>0.33333333333333331</v>
+        <f t="shared" ref="H2:H5" si="1">F2/C2*100</f>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="I2">
-        <f>D2/(G2-H2)</f>
-        <v>1.0344827586206897</v>
+        <f t="shared" ref="I2:I5" si="2">D2/(G2+H2)</f>
+        <v>0.99667774086378735</v>
       </c>
       <c r="J2">
         <f>(I2*(1.5+(E2-F2)/B2))</f>
-        <v>1.5517241379310347</v>
+        <v>1.4950166112956811</v>
       </c>
       <c r="K2">
         <f>J2/I2</f>
@@ -560,20 +560,20 @@
         <v>100</v>
       </c>
       <c r="G3">
-        <f>(B3/E3)/30</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="H3">
-        <f>F3/300</f>
-        <v>0.33333333333333331</v>
+        <f t="shared" si="1"/>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="I3">
-        <f>D3/(G3-H3)</f>
-        <v>2.1428571428571428</v>
+        <f t="shared" si="2"/>
+        <v>1.9867549668874174</v>
       </c>
       <c r="J3">
         <f>(I3*(1.5+(E3-F3)/B3))</f>
-        <v>3.2214285714285715</v>
+        <v>2.9867549668874176</v>
       </c>
       <c r="K3">
         <f>J3/I3</f>
@@ -591,7 +591,7 @@
         <v>300000</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D5" si="0">(B4/C4)*100</f>
+        <f t="shared" ref="D4:D5" si="3">(B4/C4)*100</f>
         <v>10</v>
       </c>
       <c r="E4">
@@ -601,20 +601,20 @@
         <v>100</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G5" si="1">(B4/E4)/30</f>
+        <f t="shared" si="0"/>
         <v>3.3333333333333335</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4:H5" si="2">F4/300</f>
-        <v>0.33333333333333331</v>
+        <f t="shared" si="1"/>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I4:I5" si="3">D4/(G4-H4)</f>
-        <v>3.3333333333333335</v>
+        <f t="shared" si="2"/>
+        <v>2.9702970297029703</v>
       </c>
       <c r="J4">
         <f t="shared" ref="J4:J5" si="4">(I4*(1.5+(E4-F4)/B4))</f>
-        <v>5.0222222222222221</v>
+        <v>4.4752475247524748</v>
       </c>
       <c r="K4">
         <f t="shared" ref="K4:K5" si="5">J4/I4</f>
@@ -632,7 +632,7 @@
         <v>300000</v>
       </c>
       <c r="D5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="E5">
@@ -642,20 +642,20 @@
         <v>100</v>
       </c>
       <c r="G5">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="H5">
         <f t="shared" si="1"/>
-        <v>2.5</v>
-      </c>
-      <c r="H5">
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="I5">
         <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="3"/>
-        <v>4.6153846153846159</v>
+        <v>3.9473684210526319</v>
       </c>
       <c r="J5">
         <f t="shared" si="4"/>
-        <v>6.9692307692307702</v>
+        <v>5.9605263157894743</v>
       </c>
       <c r="K5">
         <f t="shared" si="5"/>
@@ -683,24 +683,24 @@
         <v>100</v>
       </c>
       <c r="G7">
-        <f>(B7/E7)/30</f>
+        <f t="shared" ref="G7:G10" si="6">(B7/(E7*30))</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="H7">
-        <f>F7/300</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="I7" s="3" t="e">
-        <f>D7/(G7-H7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J7" s="3" t="e">
+        <f t="shared" ref="H7:H10" si="7">F7/C7*100</f>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="I7" s="3">
+        <f t="shared" ref="I7:I10" si="8">D7/(G7+H7)</f>
+        <v>0.90909090909090928</v>
+      </c>
+      <c r="J7">
         <f>(I7*(1.5+(E7-F7)/B7))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K7" s="3" t="e">
+        <v>1.363636363636364</v>
+      </c>
+      <c r="K7">
         <f>J7/I7</f>
-        <v>#DIV/0!</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -724,20 +724,20 @@
         <v>100</v>
       </c>
       <c r="G8">
-        <f>(B8/E8)/30</f>
+        <f t="shared" si="6"/>
         <v>2.5</v>
       </c>
       <c r="H8">
-        <f>F8/300</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="I8">
-        <f>D8/(G8-H8)</f>
-        <v>1.153846153846154</v>
+        <f t="shared" si="7"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="I8" s="3">
+        <f t="shared" si="8"/>
+        <v>0.98684210526315796</v>
       </c>
       <c r="J8">
         <f>(I8*(1.5+(E8-F8)/B8))</f>
-        <v>1.7307692307692308</v>
+        <v>1.4802631578947369</v>
       </c>
       <c r="K8">
         <f>J8/I8</f>
@@ -755,7 +755,7 @@
         <v>300000</v>
       </c>
       <c r="D9">
-        <f t="shared" ref="D9:D10" si="6">(B9/C9)*100</f>
+        <f t="shared" ref="D9:D10" si="9">(B9/C9)*100</f>
         <v>5</v>
       </c>
       <c r="E9">
@@ -765,20 +765,20 @@
         <v>100</v>
       </c>
       <c r="G9">
-        <f t="shared" ref="G9:G10" si="7">(B9/E9)/30</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="H9">
-        <f t="shared" ref="H9:H10" si="8">F9/300</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="I9">
-        <f t="shared" ref="I9:I10" si="9">D9/(G9-H9)</f>
-        <v>1.0714285714285714</v>
+        <f t="shared" si="7"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="I9" s="3">
+        <f t="shared" si="8"/>
+        <v>0.99337748344370869</v>
       </c>
       <c r="J9">
         <f t="shared" ref="J9:J10" si="10">(I9*(1.5+(E9-F9)/B9))</f>
-        <v>1.6071428571428572</v>
+        <v>1.490066225165563</v>
       </c>
       <c r="K9">
         <f t="shared" ref="K9:K10" si="11">J9/I9</f>
@@ -796,30 +796,30 @@
         <v>300000</v>
       </c>
       <c r="D10">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>100</v>
+      </c>
+      <c r="F10">
+        <v>100</v>
+      </c>
+      <c r="G10">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="E10">
-        <v>100</v>
-      </c>
-      <c r="F10">
-        <v>100</v>
-      </c>
-      <c r="G10">
+      <c r="H10">
         <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="H10">
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="I10" s="3">
         <f t="shared" si="8"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="9"/>
-        <v>1.0344827586206897</v>
+        <v>0.99667774086378735</v>
       </c>
       <c r="J10">
         <f t="shared" si="10"/>
-        <v>1.5517241379310347</v>
+        <v>1.4950166112956811</v>
       </c>
       <c r="K10">
         <f t="shared" si="11"/>
@@ -847,24 +847,24 @@
         <v>100</v>
       </c>
       <c r="G12">
-        <f>(B12/E12)/30</f>
+        <f t="shared" ref="G12:G15" si="12">(B12/(E12*30))</f>
         <v>1.6666666666666667</v>
       </c>
       <c r="H12">
-        <f>F12/300</f>
-        <v>0.33333333333333331</v>
+        <f t="shared" ref="H12:H15" si="13">F12/C12*100</f>
+        <v>0.33333333333333337</v>
       </c>
       <c r="I12">
-        <f>D12/(G12-H12)</f>
-        <v>12.499999999999996</v>
+        <f t="shared" ref="I12:I15" si="14">D12/(G12+H12)</f>
+        <v>8.3333333333333321</v>
       </c>
       <c r="J12">
         <f>(I12*(1.5+(E12-F12)/B12))</f>
-        <v>18.749999999999993</v>
+        <v>12.499999999999998</v>
       </c>
       <c r="K12">
         <f>J12/I12</f>
-        <v>1.4999999999999998</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -888,20 +888,20 @@
         <v>100</v>
       </c>
       <c r="G13">
-        <f>(B13/E13)/30</f>
+        <f t="shared" si="12"/>
         <v>1.6666666666666667</v>
       </c>
       <c r="H13">
-        <f>F13/300</f>
-        <v>0.33333333333333331</v>
+        <f t="shared" si="13"/>
+        <v>0.13333333333333333</v>
       </c>
       <c r="I13">
-        <f>D13/(G13-H13)</f>
-        <v>5</v>
+        <f t="shared" si="14"/>
+        <v>3.7037037037037037</v>
       </c>
       <c r="J13">
         <f>(I13*(1.5+(E13-F13)/B13))</f>
-        <v>7.5</v>
+        <v>5.5555555555555554</v>
       </c>
       <c r="K13">
         <f>J13/I13</f>
@@ -919,7 +919,7 @@
         <v>150000</v>
       </c>
       <c r="D14">
-        <f t="shared" ref="D14:D15" si="12">(B14/C14)*100</f>
+        <f t="shared" ref="D14:D15" si="15">(B14/C14)*100</f>
         <v>3.3333333333333335</v>
       </c>
       <c r="E14">
@@ -929,20 +929,20 @@
         <v>100</v>
       </c>
       <c r="G14">
-        <f t="shared" ref="G14:G15" si="13">(B14/E14)/30</f>
+        <f t="shared" si="12"/>
         <v>1.6666666666666667</v>
       </c>
       <c r="H14">
-        <f t="shared" ref="H14:H15" si="14">F14/300</f>
-        <v>0.33333333333333331</v>
+        <f t="shared" si="13"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="I14">
-        <f t="shared" ref="I14:I15" si="15">D14/(G14-H14)</f>
-        <v>2.5</v>
+        <f t="shared" si="14"/>
+        <v>1.9230769230769231</v>
       </c>
       <c r="J14">
         <f t="shared" ref="J14:J15" si="16">(I14*(1.5+(E14-F14)/B14))</f>
-        <v>3.75</v>
+        <v>2.8846153846153846</v>
       </c>
       <c r="K14">
         <f t="shared" ref="K14:K15" si="17">J14/I14</f>
@@ -960,30 +960,30 @@
         <v>300000</v>
       </c>
       <c r="D15">
+        <f t="shared" si="15"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="E15">
+        <v>100</v>
+      </c>
+      <c r="F15">
+        <v>100</v>
+      </c>
+      <c r="G15">
         <f t="shared" si="12"/>
         <v>1.6666666666666667</v>
       </c>
-      <c r="E15">
-        <v>100</v>
-      </c>
-      <c r="F15">
-        <v>100</v>
-      </c>
-      <c r="G15">
+      <c r="H15">
         <f t="shared" si="13"/>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="H15">
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="I15">
         <f t="shared" si="14"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="15"/>
-        <v>1.25</v>
+        <v>0.98039215686274506</v>
       </c>
       <c r="J15">
         <f t="shared" si="16"/>
-        <v>1.875</v>
+        <v>1.4705882352941175</v>
       </c>
       <c r="K15">
         <f t="shared" si="17"/>
@@ -1011,20 +1011,20 @@
         <v>100</v>
       </c>
       <c r="G17">
-        <f>(B17/E17)/30</f>
-        <v>10</v>
-      </c>
-      <c r="H17" s="3">
-        <f>F17/300</f>
-        <v>0.33333333333333331</v>
+        <f>(B17/(E17*30))</f>
+        <v>10</v>
+      </c>
+      <c r="H17">
+        <f>F17/C17*100</f>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="I17">
-        <f t="shared" ref="I17:I20" si="18">D17/(G17-H17)</f>
-        <v>1.0344827586206897</v>
+        <f t="shared" ref="I17:I19" si="18">D17/(G17+H17)</f>
+        <v>0.99667774086378735</v>
       </c>
       <c r="J17">
         <f>(I17*(1.5+(E17-F17)/B17))</f>
-        <v>1.5517241379310347</v>
+        <v>1.4950166112956811</v>
       </c>
       <c r="K17">
         <f>J17/I17</f>
@@ -1052,20 +1052,20 @@
         <v>200</v>
       </c>
       <c r="G18">
-        <f>(B18/E18)/30</f>
-        <v>10</v>
-      </c>
-      <c r="H18" s="3">
-        <f>F18/300</f>
-        <v>0.66666666666666663</v>
+        <f>(B18/(E18*30))</f>
+        <v>10</v>
+      </c>
+      <c r="H18">
+        <f t="shared" ref="H18:H20" si="19">F18/C18*100</f>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="I18">
         <f t="shared" si="18"/>
-        <v>1.0714285714285714</v>
+        <v>0.99337748344370869</v>
       </c>
       <c r="J18">
         <f>(I18*(1.5+(E18-F18)/B18))</f>
-        <v>1.6035714285714284</v>
+        <v>1.4867549668874172</v>
       </c>
       <c r="K18">
         <f>J18/I18</f>
@@ -1083,7 +1083,7 @@
         <v>300000</v>
       </c>
       <c r="D19">
-        <f t="shared" ref="D19:D20" si="19">(B19/C19)*100</f>
+        <f t="shared" ref="D19:D20" si="20">(B19/C19)*100</f>
         <v>10</v>
       </c>
       <c r="E19">
@@ -1093,20 +1093,20 @@
         <v>300</v>
       </c>
       <c r="G19">
-        <f t="shared" ref="G19:G20" si="20">(B19/E19)/30</f>
-        <v>10</v>
-      </c>
-      <c r="H19" s="3">
-        <f>F19/300</f>
-        <v>1</v>
+        <f>(B19/(E19*30))</f>
+        <v>10</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="19"/>
+        <v>0.1</v>
       </c>
       <c r="I19">
         <f t="shared" si="18"/>
-        <v>1.1111111111111112</v>
+        <v>0.99009900990099009</v>
       </c>
       <c r="J19">
         <f t="shared" ref="J19:J20" si="21">(I19*(1.5+(E19-F19)/B19))</f>
-        <v>1.6592592592592594</v>
+        <v>1.4785478547854787</v>
       </c>
       <c r="K19">
         <f t="shared" ref="K19:K20" si="22">J19/I19</f>
@@ -1124,7 +1124,7 @@
         <v>300000</v>
       </c>
       <c r="D20">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10</v>
       </c>
       <c r="E20">
@@ -1134,20 +1134,20 @@
         <v>400</v>
       </c>
       <c r="G20">
-        <f t="shared" si="20"/>
-        <v>10</v>
-      </c>
-      <c r="H20" s="3">
-        <f>F20/300</f>
-        <v>1.3333333333333333</v>
+        <f>(B20/(E20*30))</f>
+        <v>10</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="19"/>
+        <v>0.13333333333333333</v>
       </c>
       <c r="I20">
-        <f t="shared" si="18"/>
-        <v>1.153846153846154</v>
+        <f>D20/(G20+H20)</f>
+        <v>0.98684210526315796</v>
       </c>
       <c r="J20">
         <f t="shared" si="21"/>
-        <v>1.7192307692307693</v>
+        <v>1.4703947368421053</v>
       </c>
       <c r="K20">
         <f t="shared" si="22"/>

--- a/development/mini games/economy/prices.xlsx
+++ b/development/mini games/economy/prices.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="12">
   <si>
     <t>player buy price</t>
   </si>
@@ -42,20 +42,26 @@
     <t>amount globally</t>
   </si>
   <si>
-    <t>% globally</t>
-  </si>
-  <si>
     <t>monthly production modifier</t>
   </si>
   <si>
     <t>monthly stock modifier</t>
+  </si>
+  <si>
+    <t>amount of all resources globally</t>
+  </si>
+  <si>
+    <t>rarity of this resource</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,20 +78,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -95,11 +94,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
     <fill>
@@ -132,22 +126,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+  <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Input" xfId="3" builtinId="20"/>
+    <cellStyle name="Input" xfId="2" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -447,58 +440,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7:I10"/>
+      <selection activeCell="J5" sqref="J2:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="21.140625" customWidth="1"/>
     <col min="3" max="3" width="20.5703125" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1"/>
-    <col min="5" max="5" width="23" customWidth="1"/>
-    <col min="6" max="7" width="23.42578125" customWidth="1"/>
-    <col min="8" max="8" width="30.85546875" customWidth="1"/>
-    <col min="9" max="9" width="21.42578125" customWidth="1"/>
-    <col min="10" max="10" width="30.42578125" customWidth="1"/>
-    <col min="11" max="11" width="22.7109375" customWidth="1"/>
+    <col min="4" max="4" width="29.42578125" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" customWidth="1"/>
+    <col min="6" max="6" width="23" customWidth="1"/>
+    <col min="7" max="8" width="23.42578125" customWidth="1"/>
+    <col min="9" max="9" width="30.85546875" customWidth="1"/>
+    <col min="10" max="10" width="21.42578125" customWidth="1"/>
+    <col min="11" max="11" width="18" customWidth="1"/>
+    <col min="12" max="12" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>10</v>
       </c>
       <c r="H1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -509,37 +506,40 @@
         <v>300000</v>
       </c>
       <c r="D2">
-        <f>(B2/C2)*100</f>
+        <v>10000000</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:E5" si="0">((D2-C2)/D2)*100</f>
+        <v>97</v>
+      </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
+      <c r="G2">
+        <v>100</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ref="H2:H5" si="1">(B2/(F2*30))</f>
         <v>10</v>
       </c>
-      <c r="E2">
-        <v>100</v>
-      </c>
-      <c r="F2">
-        <v>100</v>
-      </c>
-      <c r="G2">
-        <f t="shared" ref="G2:G5" si="0">(B2/(E2*30))</f>
-        <v>10</v>
-      </c>
-      <c r="H2">
-        <f t="shared" ref="H2:H5" si="1">F2/C2*100</f>
-        <v>3.3333333333333333E-2</v>
-      </c>
       <c r="I2">
-        <f t="shared" ref="I2:I5" si="2">D2/(G2+H2)</f>
-        <v>0.99667774086378735</v>
-      </c>
-      <c r="J2">
-        <f>(I2*(1.5+(E2-F2)/B2))</f>
-        <v>1.4950166112956811</v>
-      </c>
-      <c r="K2">
-        <f>J2/I2</f>
+        <f t="shared" ref="I2:I5" si="2">G2*E2</f>
+        <v>9700</v>
+      </c>
+      <c r="J2" s="4">
+        <f t="shared" ref="J2:J5" si="3">(E2*E2*100)*((((C2-B2)/C2))/(H2+I2))</f>
+        <v>87.210092687950564</v>
+      </c>
+      <c r="K2" s="4">
+        <f>(J2*(1.5+(F2-G2)/B2))</f>
+        <v>130.81513903192584</v>
+      </c>
+      <c r="L2" s="3">
+        <f>K2/J2</f>
         <v>1.5</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -550,37 +550,40 @@
         <v>300000</v>
       </c>
       <c r="D3">
-        <f>(B3/C3)*100</f>
-        <v>10</v>
+        <v>10000000</v>
       </c>
       <c r="E3">
+        <f t="shared" si="0"/>
+        <v>97</v>
+      </c>
+      <c r="F3">
         <v>200</v>
       </c>
-      <c r="F3">
-        <v>100</v>
-      </c>
       <c r="G3">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="H3">
         <f t="shared" si="1"/>
-        <v>3.3333333333333333E-2</v>
+        <v>5</v>
       </c>
       <c r="I3">
         <f t="shared" si="2"/>
-        <v>1.9867549668874174</v>
-      </c>
-      <c r="J3">
-        <f>(I3*(1.5+(E3-F3)/B3))</f>
-        <v>2.9867549668874176</v>
-      </c>
-      <c r="K3">
-        <f>J3/I3</f>
-        <v>1.5033333333333334</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>9700</v>
+      </c>
+      <c r="J3" s="4">
+        <f t="shared" si="3"/>
+        <v>87.255023183925815</v>
+      </c>
+      <c r="K3" s="4">
+        <f>(J3*(1.5+(F3-G3)/B3))</f>
+        <v>131.17338485316847</v>
+      </c>
+      <c r="L3" s="3">
+        <f>K3/J3</f>
+        <v>1.5033333333333332</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -591,37 +594,40 @@
         <v>300000</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D5" si="3">(B4/C4)*100</f>
-        <v>10</v>
+        <v>10000000</v>
       </c>
       <c r="E4">
+        <f t="shared" si="0"/>
+        <v>97</v>
+      </c>
+      <c r="F4">
         <v>300</v>
       </c>
-      <c r="F4">
-        <v>100</v>
-      </c>
       <c r="G4">
-        <f t="shared" si="0"/>
-        <v>3.3333333333333335</v>
+        <v>100</v>
       </c>
       <c r="H4">
         <f t="shared" si="1"/>
-        <v>3.3333333333333333E-2</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="I4">
         <f t="shared" si="2"/>
-        <v>2.9702970297029703</v>
-      </c>
-      <c r="J4">
-        <f t="shared" ref="J4:J5" si="4">(I4*(1.5+(E4-F4)/B4))</f>
-        <v>4.4752475247524748</v>
-      </c>
-      <c r="K4">
-        <f t="shared" ref="K4:K5" si="5">J4/I4</f>
+        <v>9700</v>
+      </c>
+      <c r="J4" s="4">
+        <f t="shared" si="3"/>
+        <v>87.270010305736847</v>
+      </c>
+      <c r="K4" s="4">
+        <f t="shared" ref="K4:K5" si="4">(J4*(1.5+(F4-G4)/B4))</f>
+        <v>131.48681552731017</v>
+      </c>
+      <c r="L4" s="3">
+        <f t="shared" ref="L4:L5" si="5">K4/J4</f>
         <v>1.5066666666666666</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -632,37 +638,45 @@
         <v>300000</v>
       </c>
       <c r="D5">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <v>10000000</v>
       </c>
       <c r="E5">
+        <f t="shared" si="0"/>
+        <v>97</v>
+      </c>
+      <c r="F5">
         <v>400</v>
       </c>
-      <c r="F5">
-        <v>100</v>
-      </c>
       <c r="G5">
-        <f t="shared" si="0"/>
-        <v>2.5</v>
+        <v>100</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
-        <v>3.3333333333333333E-2</v>
+        <v>2.5</v>
       </c>
       <c r="I5">
         <f t="shared" si="2"/>
-        <v>3.9473684210526319</v>
-      </c>
-      <c r="J5">
+        <v>9700</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" si="3"/>
+        <v>87.277505797474873</v>
+      </c>
+      <c r="K5" s="4">
         <f t="shared" si="4"/>
-        <v>5.9605263157894743</v>
-      </c>
-      <c r="K5">
+        <v>131.78903375418707</v>
+      </c>
+      <c r="L5" s="3">
         <f t="shared" si="5"/>
-        <v>1.51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1.5100000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -673,37 +687,40 @@
         <v>300000</v>
       </c>
       <c r="D7">
-        <f>(B7/C7)*100</f>
-        <v>0.33333333333333337</v>
+        <v>10000000</v>
       </c>
       <c r="E7">
-        <v>100</v>
+        <f t="shared" ref="E7:E10" si="6">((D7-C7)/D7)*100</f>
+        <v>97</v>
       </c>
       <c r="F7">
         <v>100</v>
       </c>
       <c r="G7">
-        <f t="shared" ref="G7:G10" si="6">(B7/(E7*30))</f>
+        <v>100</v>
+      </c>
+      <c r="H7">
+        <f t="shared" ref="H7:H10" si="7">(B7/(F7*30))</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="H7">
-        <f t="shared" ref="H7:H10" si="7">F7/C7*100</f>
-        <v>3.3333333333333333E-2</v>
-      </c>
-      <c r="I7" s="3">
-        <f t="shared" ref="I7:I10" si="8">D7/(G7+H7)</f>
-        <v>0.90909090909090928</v>
-      </c>
-      <c r="J7">
-        <f>(I7*(1.5+(E7-F7)/B7))</f>
-        <v>1.363636363636364</v>
-      </c>
-      <c r="K7">
-        <f>J7/I7</f>
+      <c r="I7">
+        <f t="shared" ref="I7:I10" si="8">G7*E7</f>
+        <v>9700</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" ref="J7:J10" si="9">(E7*E7*100)*((((C7-B7)/C7))/(H7+I7))</f>
+        <v>96.673344558606232</v>
+      </c>
+      <c r="K7" s="4">
+        <f>(J7*(1.5+(F7-G7)/B7))</f>
+        <v>145.01001683790935</v>
+      </c>
+      <c r="L7" s="3">
+        <f>K7/J7</f>
         <v>1.5</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -714,37 +731,40 @@
         <v>300000</v>
       </c>
       <c r="D8">
-        <f>(B8/C8)*100</f>
-        <v>2.5</v>
+        <v>10000000</v>
       </c>
       <c r="E8">
-        <v>100</v>
+        <f t="shared" si="6"/>
+        <v>97</v>
       </c>
       <c r="F8">
         <v>100</v>
       </c>
       <c r="G8">
-        <f t="shared" si="6"/>
-        <v>2.5</v>
+        <v>100</v>
       </c>
       <c r="H8">
         <f t="shared" si="7"/>
-        <v>3.3333333333333333E-2</v>
-      </c>
-      <c r="I8" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="I8">
         <f t="shared" si="8"/>
-        <v>0.98684210526315796</v>
-      </c>
-      <c r="J8">
-        <f>(I8*(1.5+(E8-F8)/B8))</f>
-        <v>1.4802631578947369</v>
-      </c>
-      <c r="K8">
-        <f>J8/I8</f>
+        <v>9700</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" si="9"/>
+        <v>94.550631280597784</v>
+      </c>
+      <c r="K8" s="4">
+        <f>(J8*(1.5+(F8-G8)/B8))</f>
+        <v>141.82594692089668</v>
+      </c>
+      <c r="L8" s="3">
+        <f>K8/J8</f>
         <v>1.5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -755,37 +775,40 @@
         <v>300000</v>
       </c>
       <c r="D9">
-        <f t="shared" ref="D9:D10" si="9">(B9/C9)*100</f>
-        <v>5</v>
+        <v>10000000</v>
       </c>
       <c r="E9">
-        <v>100</v>
+        <f t="shared" si="6"/>
+        <v>97</v>
       </c>
       <c r="F9">
         <v>100</v>
       </c>
       <c r="G9">
-        <f t="shared" si="6"/>
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="H9">
         <f t="shared" si="7"/>
-        <v>3.3333333333333333E-2</v>
-      </c>
-      <c r="I9" s="3">
+        <v>5</v>
+      </c>
+      <c r="I9">
         <f t="shared" si="8"/>
-        <v>0.99337748344370869</v>
-      </c>
-      <c r="J9">
-        <f t="shared" ref="J9:J10" si="10">(I9*(1.5+(E9-F9)/B9))</f>
-        <v>1.490066225165563</v>
-      </c>
-      <c r="K9">
-        <f t="shared" ref="K9:K10" si="11">J9/I9</f>
+        <v>9700</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="9"/>
+        <v>92.102524471921683</v>
+      </c>
+      <c r="K9" s="4">
+        <f t="shared" ref="K9:K10" si="10">(J9*(1.5+(F9-G9)/B9))</f>
+        <v>138.15378670788252</v>
+      </c>
+      <c r="L9" s="3">
+        <f t="shared" ref="L9:L10" si="11">K9/J9</f>
         <v>1.5</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -796,37 +819,45 @@
         <v>300000</v>
       </c>
       <c r="D10">
-        <f t="shared" si="9"/>
-        <v>10</v>
+        <v>10000000</v>
       </c>
       <c r="E10">
-        <v>100</v>
+        <f t="shared" si="6"/>
+        <v>97</v>
       </c>
       <c r="F10">
         <v>100</v>
       </c>
       <c r="G10">
-        <f t="shared" si="6"/>
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="H10">
         <f t="shared" si="7"/>
-        <v>3.3333333333333333E-2</v>
-      </c>
-      <c r="I10" s="3">
+        <v>10</v>
+      </c>
+      <c r="I10">
         <f t="shared" si="8"/>
-        <v>0.99667774086378735</v>
-      </c>
-      <c r="J10">
+        <v>9700</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="9"/>
+        <v>87.210092687950564</v>
+      </c>
+      <c r="K10" s="4">
         <f t="shared" si="10"/>
-        <v>1.4950166112956811</v>
-      </c>
-      <c r="K10">
+        <v>130.81513903192584</v>
+      </c>
+      <c r="L10" s="3">
         <f t="shared" si="11"/>
         <v>1.5</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -837,37 +868,40 @@
         <v>30000</v>
       </c>
       <c r="D12">
-        <f>(B12/C12)*100</f>
-        <v>16.666666666666664</v>
+        <v>10000000</v>
       </c>
       <c r="E12">
-        <v>100</v>
+        <f>((D12-C12)/D12)*100</f>
+        <v>99.7</v>
       </c>
       <c r="F12">
         <v>100</v>
       </c>
       <c r="G12">
-        <f t="shared" ref="G12:G15" si="12">(B12/(E12*30))</f>
+        <v>100</v>
+      </c>
+      <c r="H12">
+        <f t="shared" ref="H12:H15" si="12">(B12/(F12*30))</f>
         <v>1.6666666666666667</v>
       </c>
-      <c r="H12">
-        <f t="shared" ref="H12:H15" si="13">F12/C12*100</f>
-        <v>0.33333333333333337</v>
-      </c>
       <c r="I12">
-        <f t="shared" ref="I12:I15" si="14">D12/(G12+H12)</f>
-        <v>8.3333333333333321</v>
-      </c>
-      <c r="J12">
-        <f>(I12*(1.5+(E12-F12)/B12))</f>
-        <v>12.499999999999998</v>
-      </c>
-      <c r="K12">
-        <f>J12/I12</f>
+        <f>G12*E12</f>
+        <v>9970</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" ref="J12:J14" si="13">(E12*E12*100)*((((C12-B12)/C12))/(H12+I12))</f>
+        <v>83.069446765836545</v>
+      </c>
+      <c r="K12" s="4">
+        <f>(J12*(1.5+(F12-G12)/B12))</f>
+        <v>124.60417014875482</v>
+      </c>
+      <c r="L12" s="3">
+        <f>K12/J12</f>
         <v>1.5</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -878,37 +912,40 @@
         <v>75000</v>
       </c>
       <c r="D13">
-        <f>(B13/C13)*100</f>
-        <v>6.666666666666667</v>
+        <v>10000000</v>
       </c>
       <c r="E13">
-        <v>100</v>
+        <f>((D13-C13)/D13)*100</f>
+        <v>99.25</v>
       </c>
       <c r="F13">
         <v>100</v>
       </c>
       <c r="G13">
+        <v>100</v>
+      </c>
+      <c r="H13">
         <f t="shared" si="12"/>
         <v>1.6666666666666667</v>
       </c>
-      <c r="H13">
+      <c r="I13">
+        <f t="shared" ref="I13:I15" si="14">G13*E13</f>
+        <v>9925</v>
+      </c>
+      <c r="J13" s="4">
         <f t="shared" si="13"/>
-        <v>0.13333333333333333</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="14"/>
-        <v>3.7037037037037037</v>
-      </c>
-      <c r="J13">
-        <f>(I13*(1.5+(E13-F13)/B13))</f>
-        <v>5.5555555555555554</v>
-      </c>
-      <c r="K13">
-        <f>J13/I13</f>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>92.617780389523176</v>
+      </c>
+      <c r="K13" s="4">
+        <f>(J13*(1.5+(F13-G13)/B13))</f>
+        <v>138.92667058428475</v>
+      </c>
+      <c r="L13" s="3">
+        <f>K13/J13</f>
+        <v>1.4999999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -919,37 +956,40 @@
         <v>150000</v>
       </c>
       <c r="D14">
-        <f t="shared" ref="D14:D15" si="15">(B14/C14)*100</f>
-        <v>3.3333333333333335</v>
+        <v>10000000</v>
       </c>
       <c r="E14">
-        <v>100</v>
+        <f>((D14-C14)/D14)*100</f>
+        <v>98.5</v>
       </c>
       <c r="F14">
         <v>100</v>
       </c>
       <c r="G14">
+        <v>100</v>
+      </c>
+      <c r="H14">
         <f t="shared" si="12"/>
         <v>1.6666666666666667</v>
       </c>
-      <c r="H14">
-        <f t="shared" si="13"/>
-        <v>6.6666666666666666E-2</v>
-      </c>
       <c r="I14">
         <f t="shared" si="14"/>
-        <v>1.9230769230769231</v>
-      </c>
-      <c r="J14">
-        <f t="shared" ref="J14:J15" si="16">(I14*(1.5+(E14-F14)/B14))</f>
-        <v>2.8846153846153846</v>
-      </c>
-      <c r="K14">
-        <f t="shared" ref="K14:K15" si="17">J14/I14</f>
+        <v>9850</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="13"/>
+        <v>95.2005582811707</v>
+      </c>
+      <c r="K14" s="4">
+        <f t="shared" ref="K14:K15" si="15">(J14*(1.5+(F14-G14)/B14))</f>
+        <v>142.80083742175606</v>
+      </c>
+      <c r="L14" s="3">
+        <f t="shared" ref="L14:L15" si="16">K14/J14</f>
         <v>1.5</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -960,37 +1000,45 @@
         <v>300000</v>
       </c>
       <c r="D15">
-        <f t="shared" si="15"/>
-        <v>1.6666666666666667</v>
+        <v>10000000</v>
       </c>
       <c r="E15">
-        <v>100</v>
+        <f>((D15-C15)/D15)*100</f>
+        <v>97</v>
       </c>
       <c r="F15">
         <v>100</v>
       </c>
       <c r="G15">
+        <v>100</v>
+      </c>
+      <c r="H15">
         <f t="shared" si="12"/>
         <v>1.6666666666666667</v>
       </c>
-      <c r="H15">
-        <f t="shared" si="13"/>
-        <v>3.3333333333333333E-2</v>
-      </c>
       <c r="I15">
         <f t="shared" si="14"/>
-        <v>0.98039215686274506</v>
-      </c>
-      <c r="J15">
+        <v>9700</v>
+      </c>
+      <c r="J15" s="4">
+        <f>(E15*E15*100)*((((C15-B15)/C15))/(H15+I15))</f>
+        <v>95.366947259920977</v>
+      </c>
+      <c r="K15" s="4">
+        <f t="shared" si="15"/>
+        <v>143.05042088988148</v>
+      </c>
+      <c r="L15" s="3">
         <f t="shared" si="16"/>
-        <v>1.4705882352941175</v>
-      </c>
-      <c r="K15">
-        <f t="shared" si="17"/>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1.5000000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -1001,37 +1049,40 @@
         <v>300000</v>
       </c>
       <c r="D17">
-        <f>(B17/C17)*100</f>
+        <v>10000000</v>
+      </c>
+      <c r="E17">
+        <f t="shared" ref="E17:E20" si="17">((D17-C17)/D17)*100</f>
+        <v>97</v>
+      </c>
+      <c r="F17">
+        <v>100</v>
+      </c>
+      <c r="G17">
+        <v>100</v>
+      </c>
+      <c r="H17">
+        <f>(B17/(F17*30))</f>
         <v>10</v>
       </c>
-      <c r="E17">
-        <v>100</v>
-      </c>
-      <c r="F17">
-        <v>100</v>
-      </c>
-      <c r="G17">
-        <f>(B17/(E17*30))</f>
-        <v>10</v>
-      </c>
-      <c r="H17">
-        <f>F17/C17*100</f>
-        <v>3.3333333333333333E-2</v>
-      </c>
       <c r="I17">
-        <f t="shared" ref="I17:I19" si="18">D17/(G17+H17)</f>
-        <v>0.99667774086378735</v>
-      </c>
-      <c r="J17">
-        <f>(I17*(1.5+(E17-F17)/B17))</f>
-        <v>1.4950166112956811</v>
-      </c>
-      <c r="K17">
-        <f>J17/I17</f>
+        <f t="shared" ref="I17:I20" si="18">G17*E17</f>
+        <v>9700</v>
+      </c>
+      <c r="J17" s="4">
+        <f t="shared" ref="J17:J20" si="19">(E17*E17*100)*((((C17-B17)/C17))/(H17+I17))</f>
+        <v>87.210092687950564</v>
+      </c>
+      <c r="K17" s="4">
+        <f>(J17*(1.5+(F17-G17)/B17))</f>
+        <v>130.81513903192584</v>
+      </c>
+      <c r="L17" s="3">
+        <f>K17/J17</f>
         <v>1.5</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -1042,37 +1093,40 @@
         <v>300000</v>
       </c>
       <c r="D18">
-        <f>(B18/C18)*100</f>
+        <v>10000000</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="17"/>
+        <v>97</v>
+      </c>
+      <c r="F18">
+        <v>100</v>
+      </c>
+      <c r="G18">
+        <v>200</v>
+      </c>
+      <c r="H18">
+        <f>(B18/(F18*30))</f>
         <v>10</v>
-      </c>
-      <c r="E18">
-        <v>100</v>
-      </c>
-      <c r="F18">
-        <v>200</v>
-      </c>
-      <c r="G18">
-        <f>(B18/(E18*30))</f>
-        <v>10</v>
-      </c>
-      <c r="H18">
-        <f t="shared" ref="H18:H20" si="19">F18/C18*100</f>
-        <v>6.6666666666666666E-2</v>
       </c>
       <c r="I18">
         <f t="shared" si="18"/>
-        <v>0.99337748344370869</v>
-      </c>
-      <c r="J18">
-        <f>(I18*(1.5+(E18-F18)/B18))</f>
-        <v>1.4867549668874172</v>
-      </c>
-      <c r="K18">
-        <f>J18/I18</f>
+        <v>19400</v>
+      </c>
+      <c r="J18" s="4">
+        <f t="shared" si="19"/>
+        <v>43.627511591962907</v>
+      </c>
+      <c r="K18" s="4">
+        <f>(J18*(1.5+(F18-G18)/B18))</f>
+        <v>65.295842349304479</v>
+      </c>
+      <c r="L18" s="3">
+        <f>K18/J18</f>
         <v>1.4966666666666666</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -1083,37 +1137,40 @@
         <v>300000</v>
       </c>
       <c r="D19">
-        <f t="shared" ref="D19:D20" si="20">(B19/C19)*100</f>
+        <v>10000000</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="17"/>
+        <v>97</v>
+      </c>
+      <c r="F19">
+        <v>100</v>
+      </c>
+      <c r="G19">
+        <v>300</v>
+      </c>
+      <c r="H19">
+        <f>(B19/(F19*30))</f>
         <v>10</v>
-      </c>
-      <c r="E19">
-        <v>100</v>
-      </c>
-      <c r="F19">
-        <v>300</v>
-      </c>
-      <c r="G19">
-        <f>(B19/(E19*30))</f>
-        <v>10</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="19"/>
-        <v>0.1</v>
       </c>
       <c r="I19">
         <f t="shared" si="18"/>
-        <v>0.99009900990099009</v>
-      </c>
-      <c r="J19">
-        <f t="shared" ref="J19:J20" si="21">(I19*(1.5+(E19-F19)/B19))</f>
-        <v>1.4785478547854787</v>
-      </c>
-      <c r="K19">
-        <f t="shared" ref="K19:K20" si="22">J19/I19</f>
+        <v>29100</v>
+      </c>
+      <c r="J19" s="4">
+        <f t="shared" si="19"/>
+        <v>29.090003435245617</v>
+      </c>
+      <c r="K19" s="4">
+        <f t="shared" ref="K19:K20" si="20">(J19*(1.5+(F19-G19)/B19))</f>
+        <v>43.441071796633459</v>
+      </c>
+      <c r="L19" s="3">
+        <f t="shared" ref="L19:L20" si="21">K19/J19</f>
         <v>1.4933333333333334</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -1124,38 +1181,42 @@
         <v>300000</v>
       </c>
       <c r="D20">
+        <v>10000000</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="17"/>
+        <v>97</v>
+      </c>
+      <c r="F20">
+        <v>100</v>
+      </c>
+      <c r="G20">
+        <v>400</v>
+      </c>
+      <c r="H20">
+        <f>(B20/(F20*30))</f>
+        <v>10</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="18"/>
+        <v>38800</v>
+      </c>
+      <c r="J20" s="4">
+        <f t="shared" si="19"/>
+        <v>21.819376449368718</v>
+      </c>
+      <c r="K20" s="4">
         <f t="shared" si="20"/>
-        <v>10</v>
-      </c>
-      <c r="E20">
-        <v>100</v>
-      </c>
-      <c r="F20">
-        <v>400</v>
-      </c>
-      <c r="G20">
-        <f>(B20/(E20*30))</f>
-        <v>10</v>
-      </c>
-      <c r="H20">
-        <f t="shared" si="19"/>
-        <v>0.13333333333333333</v>
-      </c>
-      <c r="I20">
-        <f>D20/(G20+H20)</f>
-        <v>0.98684210526315796</v>
-      </c>
-      <c r="J20">
+        <v>32.510870909559387</v>
+      </c>
+      <c r="L20" s="3">
         <f t="shared" si="21"/>
-        <v>1.4703947368421053</v>
-      </c>
-      <c r="K20">
-        <f t="shared" si="22"/>
-        <v>1.49</v>
+        <v>1.4899999999999998</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/development/mini games/economy/prices.xlsx
+++ b/development/mini games/economy/prices.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="12">
   <si>
     <t>player buy price</t>
   </si>
@@ -42,9 +42,6 @@
     <t>amount globally</t>
   </si>
   <si>
-    <t>monthly production modifier</t>
-  </si>
-  <si>
     <t>monthly stock modifier</t>
   </si>
   <si>
@@ -52,6 +49,9 @@
   </si>
   <si>
     <t>rarity of this resource</t>
+  </si>
+  <si>
+    <t>stock / global modifier</t>
   </si>
 </sst>
 </file>
@@ -61,7 +61,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,8 +83,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -99,6 +106,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -126,19 +138,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="3" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="3" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Input" xfId="2" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -440,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J2:J5"/>
+      <selection activeCell="J7" sqref="J7:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -453,8 +468,7 @@
     <col min="4" max="4" width="29.42578125" customWidth="1"/>
     <col min="5" max="5" width="22.140625" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="8" width="23.42578125" customWidth="1"/>
-    <col min="9" max="9" width="30.85546875" customWidth="1"/>
+    <col min="7" max="9" width="23.42578125" customWidth="1"/>
     <col min="10" max="10" width="21.42578125" customWidth="1"/>
     <col min="11" max="11" width="18" customWidth="1"/>
     <col min="12" max="12" width="22.7109375" customWidth="1"/>
@@ -468,10 +482,10 @@
         <v>7</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
         <v>10</v>
-      </c>
-      <c r="E1" t="s">
-        <v>11</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>3</v>
@@ -480,10 +494,10 @@
         <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>1</v>
@@ -523,16 +537,16 @@
         <v>10</v>
       </c>
       <c r="I2">
-        <f t="shared" ref="I2:I5" si="2">G2*E2</f>
-        <v>9700</v>
+        <f t="shared" ref="I2:I5" si="2">1-((C2-B2)/C2)</f>
+        <v>9.9999999999999978E-2</v>
       </c>
       <c r="J2" s="4">
-        <f t="shared" ref="J2:J5" si="3">(E2*E2*100)*((((C2-B2)/C2))/(H2+I2))</f>
-        <v>87.210092687950564</v>
+        <f>E2*(I2/H2)</f>
+        <v>0.96999999999999986</v>
       </c>
       <c r="K2" s="4">
         <f>(J2*(1.5+(F2-G2)/B2))</f>
-        <v>130.81513903192584</v>
+        <v>1.4549999999999998</v>
       </c>
       <c r="L2" s="3">
         <f>K2/J2</f>
@@ -568,19 +582,19 @@
       </c>
       <c r="I3">
         <f t="shared" si="2"/>
-        <v>9700</v>
+        <v>9.9999999999999978E-2</v>
       </c>
       <c r="J3" s="4">
-        <f t="shared" si="3"/>
-        <v>87.255023183925815</v>
+        <f>E3*(I3/H3)</f>
+        <v>1.9399999999999997</v>
       </c>
       <c r="K3" s="4">
         <f>(J3*(1.5+(F3-G3)/B3))</f>
-        <v>131.17338485316847</v>
+        <v>2.9164666666666665</v>
       </c>
       <c r="L3" s="3">
         <f>K3/J3</f>
-        <v>1.5033333333333332</v>
+        <v>1.5033333333333334</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -612,18 +626,18 @@
       </c>
       <c r="I4">
         <f t="shared" si="2"/>
-        <v>9700</v>
+        <v>9.9999999999999978E-2</v>
       </c>
       <c r="J4" s="4">
-        <f t="shared" si="3"/>
-        <v>87.270010305736847</v>
+        <f>E4*(I4/H4)</f>
+        <v>2.9099999999999993</v>
       </c>
       <c r="K4" s="4">
-        <f t="shared" ref="K4:K5" si="4">(J4*(1.5+(F4-G4)/B4))</f>
-        <v>131.48681552731017</v>
+        <f>(J4*(1.5+(F4-G4)/B4))</f>
+        <v>4.3843999999999985</v>
       </c>
       <c r="L4" s="3">
-        <f t="shared" ref="L4:L5" si="5">K4/J4</f>
+        <f t="shared" ref="L4:L5" si="3">K4/J4</f>
         <v>1.5066666666666666</v>
       </c>
     </row>
@@ -656,19 +670,19 @@
       </c>
       <c r="I5">
         <f t="shared" si="2"/>
-        <v>9700</v>
+        <v>9.9999999999999978E-2</v>
       </c>
       <c r="J5" s="4">
+        <f>E5*(I5/H5)</f>
+        <v>3.8799999999999994</v>
+      </c>
+      <c r="K5" s="4">
+        <f>(J5*(1.5+(F5-G5)/B5))</f>
+        <v>5.8587999999999996</v>
+      </c>
+      <c r="L5" s="3">
         <f t="shared" si="3"/>
-        <v>87.277505797474873</v>
-      </c>
-      <c r="K5" s="4">
-        <f t="shared" si="4"/>
-        <v>131.78903375418707</v>
-      </c>
-      <c r="L5" s="3">
-        <f t="shared" si="5"/>
-        <v>1.5100000000000002</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -690,7 +704,7 @@
         <v>10000000</v>
       </c>
       <c r="E7">
-        <f t="shared" ref="E7:E10" si="6">((D7-C7)/D7)*100</f>
+        <f t="shared" ref="E7:E10" si="4">((D7-C7)/D7)*100</f>
         <v>97</v>
       </c>
       <c r="F7">
@@ -700,20 +714,20 @@
         <v>100</v>
       </c>
       <c r="H7">
-        <f t="shared" ref="H7:H10" si="7">(B7/(F7*30))</f>
+        <f t="shared" ref="H7:H10" si="5">(B7/(F7*30))</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="I7">
-        <f t="shared" ref="I7:I10" si="8">G7*E7</f>
-        <v>9700</v>
-      </c>
-      <c r="J7" s="4">
-        <f t="shared" ref="J7:J10" si="9">(E7*E7*100)*((((C7-B7)/C7))/(H7+I7))</f>
-        <v>96.673344558606232</v>
+        <f>1-((C7-B7)/C7)</f>
+        <v>3.3333333333332993E-3</v>
+      </c>
+      <c r="J7" s="5">
+        <f t="shared" ref="J7:J10" si="6">E7*(I7/H7)</f>
+        <v>0.96999999999999009</v>
       </c>
       <c r="K7" s="4">
         <f>(J7*(1.5+(F7-G7)/B7))</f>
-        <v>145.01001683790935</v>
+        <v>1.4549999999999852</v>
       </c>
       <c r="L7" s="3">
         <f>K7/J7</f>
@@ -734,34 +748,34 @@
         <v>10000000</v>
       </c>
       <c r="E8">
+        <f t="shared" si="4"/>
+        <v>97</v>
+      </c>
+      <c r="F8">
+        <v>100</v>
+      </c>
+      <c r="G8">
+        <v>100</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="5"/>
+        <v>2.5</v>
+      </c>
+      <c r="I8">
+        <f t="shared" ref="I8:I10" si="7">1-((C8-B8)/C8)</f>
+        <v>2.5000000000000022E-2</v>
+      </c>
+      <c r="J8" s="5">
         <f t="shared" si="6"/>
-        <v>97</v>
-      </c>
-      <c r="F8">
-        <v>100</v>
-      </c>
-      <c r="G8">
-        <v>100</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="7"/>
-        <v>2.5</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="8"/>
-        <v>9700</v>
-      </c>
-      <c r="J8" s="4">
-        <f t="shared" si="9"/>
-        <v>94.550631280597784</v>
+        <v>0.97000000000000086</v>
       </c>
       <c r="K8" s="4">
         <f>(J8*(1.5+(F8-G8)/B8))</f>
-        <v>141.82594692089668</v>
+        <v>1.4550000000000014</v>
       </c>
       <c r="L8" s="3">
         <f>K8/J8</f>
-        <v>1.5</v>
+        <v>1.5000000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -778,34 +792,34 @@
         <v>10000000</v>
       </c>
       <c r="E9">
+        <f t="shared" si="4"/>
+        <v>97</v>
+      </c>
+      <c r="F9">
+        <v>100</v>
+      </c>
+      <c r="G9">
+        <v>100</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="7"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="J9" s="5">
         <f t="shared" si="6"/>
-        <v>97</v>
-      </c>
-      <c r="F9">
-        <v>100</v>
-      </c>
-      <c r="G9">
-        <v>100</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="8"/>
-        <v>9700</v>
-      </c>
-      <c r="J9" s="4">
-        <f t="shared" si="9"/>
-        <v>92.102524471921683</v>
+        <v>0.97000000000000086</v>
       </c>
       <c r="K9" s="4">
-        <f t="shared" ref="K9:K10" si="10">(J9*(1.5+(F9-G9)/B9))</f>
-        <v>138.15378670788252</v>
+        <f>(J9*(1.5+(F9-G9)/B9))</f>
+        <v>1.4550000000000014</v>
       </c>
       <c r="L9" s="3">
-        <f t="shared" ref="L9:L10" si="11">K9/J9</f>
-        <v>1.5</v>
+        <f t="shared" ref="L9:L10" si="8">K9/J9</f>
+        <v>1.5000000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -822,33 +836,33 @@
         <v>10000000</v>
       </c>
       <c r="E10">
+        <f t="shared" si="4"/>
+        <v>97</v>
+      </c>
+      <c r="F10">
+        <v>100</v>
+      </c>
+      <c r="G10">
+        <v>100</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="7"/>
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="J10" s="5">
         <f t="shared" si="6"/>
-        <v>97</v>
-      </c>
-      <c r="F10">
-        <v>100</v>
-      </c>
-      <c r="G10">
-        <v>100</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="I10">
+        <v>0.96999999999999986</v>
+      </c>
+      <c r="K10" s="4">
+        <f>(J10*(1.5+(F10-G10)/B10))</f>
+        <v>1.4549999999999998</v>
+      </c>
+      <c r="L10" s="3">
         <f t="shared" si="8"/>
-        <v>9700</v>
-      </c>
-      <c r="J10" s="4">
-        <f t="shared" si="9"/>
-        <v>87.210092687950564</v>
-      </c>
-      <c r="K10" s="4">
-        <f t="shared" si="10"/>
-        <v>130.81513903192584</v>
-      </c>
-      <c r="L10" s="3">
-        <f t="shared" si="11"/>
         <v>1.5</v>
       </c>
     </row>
@@ -881,20 +895,20 @@
         <v>100</v>
       </c>
       <c r="H12">
-        <f t="shared" ref="H12:H15" si="12">(B12/(F12*30))</f>
+        <f t="shared" ref="H12:H15" si="9">(B12/(F12*30))</f>
         <v>1.6666666666666667</v>
       </c>
       <c r="I12">
-        <f>G12*E12</f>
-        <v>9970</v>
+        <f t="shared" ref="I12:I15" si="10">1-((C12-B12)/C12)</f>
+        <v>0.16666666666666663</v>
       </c>
       <c r="J12" s="4">
-        <f t="shared" ref="J12:J14" si="13">(E12*E12*100)*((((C12-B12)/C12))/(H12+I12))</f>
-        <v>83.069446765836545</v>
+        <f t="shared" ref="J12:J15" si="11">E12*(I12/H12)</f>
+        <v>9.9699999999999989</v>
       </c>
       <c r="K12" s="4">
         <f>(J12*(1.5+(F12-G12)/B12))</f>
-        <v>124.60417014875482</v>
+        <v>14.954999999999998</v>
       </c>
       <c r="L12" s="3">
         <f>K12/J12</f>
@@ -925,24 +939,24 @@
         <v>100</v>
       </c>
       <c r="H13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>1.6666666666666667</v>
       </c>
       <c r="I13">
-        <f t="shared" ref="I13:I15" si="14">G13*E13</f>
-        <v>9925</v>
+        <f t="shared" si="10"/>
+        <v>6.6666666666666652E-2</v>
       </c>
       <c r="J13" s="4">
-        <f t="shared" si="13"/>
-        <v>92.617780389523176</v>
+        <f t="shared" si="11"/>
+        <v>3.9699999999999989</v>
       </c>
       <c r="K13" s="4">
         <f>(J13*(1.5+(F13-G13)/B13))</f>
-        <v>138.92667058428475</v>
+        <v>5.9549999999999983</v>
       </c>
       <c r="L13" s="3">
         <f>K13/J13</f>
-        <v>1.4999999999999998</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -969,24 +983,24 @@
         <v>100</v>
       </c>
       <c r="H14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>1.6666666666666667</v>
       </c>
       <c r="I14">
-        <f t="shared" si="14"/>
-        <v>9850</v>
+        <f t="shared" si="10"/>
+        <v>3.3333333333333326E-2</v>
       </c>
       <c r="J14" s="4">
-        <f t="shared" si="13"/>
-        <v>95.2005582811707</v>
+        <f t="shared" si="11"/>
+        <v>1.9699999999999993</v>
       </c>
       <c r="K14" s="4">
-        <f t="shared" ref="K14:K15" si="15">(J14*(1.5+(F14-G14)/B14))</f>
-        <v>142.80083742175606</v>
+        <f>(J14*(1.5+(F14-G14)/B14))</f>
+        <v>2.9549999999999992</v>
       </c>
       <c r="L14" s="3">
-        <f t="shared" ref="L14:L15" si="16">K14/J14</f>
-        <v>1.5</v>
+        <f t="shared" ref="L14:L15" si="12">K14/J14</f>
+        <v>1.5000000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -1013,24 +1027,24 @@
         <v>100</v>
       </c>
       <c r="H15">
+        <f t="shared" si="9"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="10"/>
+        <v>1.6666666666666718E-2</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="11"/>
+        <v>0.97000000000000308</v>
+      </c>
+      <c r="K15" s="4">
+        <f>(J15*(1.5+(F15-G15)/B15))</f>
+        <v>1.4550000000000045</v>
+      </c>
+      <c r="L15" s="3">
         <f t="shared" si="12"/>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="14"/>
-        <v>9700</v>
-      </c>
-      <c r="J15" s="4">
-        <f>(E15*E15*100)*((((C15-B15)/C15))/(H15+I15))</f>
-        <v>95.366947259920977</v>
-      </c>
-      <c r="K15" s="4">
-        <f t="shared" si="15"/>
-        <v>143.05042088988148</v>
-      </c>
-      <c r="L15" s="3">
-        <f t="shared" si="16"/>
-        <v>1.5000000000000002</v>
+        <v>1.4999999999999998</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -1052,7 +1066,7 @@
         <v>10000000</v>
       </c>
       <c r="E17">
-        <f t="shared" ref="E17:E20" si="17">((D17-C17)/D17)*100</f>
+        <f t="shared" ref="E17:E20" si="13">((D17-C17)/D17)*100</f>
         <v>97</v>
       </c>
       <c r="F17">
@@ -1066,16 +1080,16 @@
         <v>10</v>
       </c>
       <c r="I17">
-        <f t="shared" ref="I17:I20" si="18">G17*E17</f>
-        <v>9700</v>
+        <f t="shared" ref="I17:I20" si="14">1-((C17-B17)/C17)</f>
+        <v>9.9999999999999978E-2</v>
       </c>
       <c r="J17" s="4">
-        <f t="shared" ref="J17:J20" si="19">(E17*E17*100)*((((C17-B17)/C17))/(H17+I17))</f>
-        <v>87.210092687950564</v>
+        <f t="shared" ref="J17:J20" si="15">E17*(I17/H17)</f>
+        <v>0.96999999999999986</v>
       </c>
       <c r="K17" s="4">
         <f>(J17*(1.5+(F17-G17)/B17))</f>
-        <v>130.81513903192584</v>
+        <v>1.4549999999999998</v>
       </c>
       <c r="L17" s="3">
         <f>K17/J17</f>
@@ -1096,7 +1110,7 @@
         <v>10000000</v>
       </c>
       <c r="E18">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>97</v>
       </c>
       <c r="F18">
@@ -1110,16 +1124,16 @@
         <v>10</v>
       </c>
       <c r="I18">
-        <f t="shared" si="18"/>
-        <v>19400</v>
+        <f t="shared" si="14"/>
+        <v>9.9999999999999978E-2</v>
       </c>
       <c r="J18" s="4">
-        <f t="shared" si="19"/>
-        <v>43.627511591962907</v>
+        <f t="shared" si="15"/>
+        <v>0.96999999999999986</v>
       </c>
       <c r="K18" s="4">
         <f>(J18*(1.5+(F18-G18)/B18))</f>
-        <v>65.295842349304479</v>
+        <v>1.4517666666666664</v>
       </c>
       <c r="L18" s="3">
         <f>K18/J18</f>
@@ -1140,7 +1154,7 @@
         <v>10000000</v>
       </c>
       <c r="E19">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>97</v>
       </c>
       <c r="F19">
@@ -1154,19 +1168,19 @@
         <v>10</v>
       </c>
       <c r="I19">
-        <f t="shared" si="18"/>
-        <v>29100</v>
+        <f t="shared" si="14"/>
+        <v>9.9999999999999978E-2</v>
       </c>
       <c r="J19" s="4">
-        <f t="shared" si="19"/>
-        <v>29.090003435245617</v>
+        <f t="shared" si="15"/>
+        <v>0.96999999999999986</v>
       </c>
       <c r="K19" s="4">
-        <f t="shared" ref="K19:K20" si="20">(J19*(1.5+(F19-G19)/B19))</f>
-        <v>43.441071796633459</v>
+        <f>(J19*(1.5+(F19-G19)/B19))</f>
+        <v>1.4485333333333332</v>
       </c>
       <c r="L19" s="3">
-        <f t="shared" ref="L19:L20" si="21">K19/J19</f>
+        <f t="shared" ref="L19:L20" si="16">K19/J19</f>
         <v>1.4933333333333334</v>
       </c>
     </row>
@@ -1184,7 +1198,7 @@
         <v>10000000</v>
       </c>
       <c r="E20">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>97</v>
       </c>
       <c r="F20">
@@ -1198,20 +1212,196 @@
         <v>10</v>
       </c>
       <c r="I20">
+        <f t="shared" si="14"/>
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="J20" s="4">
+        <f t="shared" si="15"/>
+        <v>0.96999999999999986</v>
+      </c>
+      <c r="K20" s="4">
+        <f>(J20*(1.5+(F20-G20)/B20))</f>
+        <v>1.4452999999999998</v>
+      </c>
+      <c r="L20" s="3">
+        <f t="shared" si="16"/>
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22">
+        <v>30000</v>
+      </c>
+      <c r="C22">
+        <v>300000</v>
+      </c>
+      <c r="D22">
+        <v>350000</v>
+      </c>
+      <c r="E22">
+        <f t="shared" ref="E22:E25" si="17">((D22-C22)/D22)*100</f>
+        <v>14.285714285714285</v>
+      </c>
+      <c r="F22">
+        <v>100</v>
+      </c>
+      <c r="G22">
+        <v>100</v>
+      </c>
+      <c r="H22">
+        <f>(B22/(F22*30))</f>
+        <v>10</v>
+      </c>
+      <c r="I22">
+        <f t="shared" ref="I22:I25" si="18">1-((C22-B22)/C22)</f>
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="J22" s="4">
+        <f t="shared" ref="J22:J25" si="19">E22*(I22/H22)</f>
+        <v>0.14285714285714282</v>
+      </c>
+      <c r="K22" s="4">
+        <f>(J22*(1.5+(F22-G22)/B22))</f>
+        <v>0.21428571428571425</v>
+      </c>
+      <c r="L22" s="3">
+        <f>K22/J22</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23">
+        <v>30000</v>
+      </c>
+      <c r="C23">
+        <v>300000</v>
+      </c>
+      <c r="D23">
+        <v>1000000</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="17"/>
+        <v>70</v>
+      </c>
+      <c r="F23">
+        <v>100</v>
+      </c>
+      <c r="G23">
+        <v>100</v>
+      </c>
+      <c r="H23">
+        <f>(B23/(F23*30))</f>
+        <v>10</v>
+      </c>
+      <c r="I23">
         <f t="shared" si="18"/>
-        <v>38800</v>
-      </c>
-      <c r="J20" s="4">
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="J23" s="4">
         <f t="shared" si="19"/>
-        <v>21.819376449368718</v>
-      </c>
-      <c r="K20" s="4">
+        <v>0.69999999999999984</v>
+      </c>
+      <c r="K23" s="4">
+        <f>(J23*(1.5+(F23-G23)/B23))</f>
+        <v>1.0499999999999998</v>
+      </c>
+      <c r="L23" s="3">
+        <f>K23/J23</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24">
+        <v>30000</v>
+      </c>
+      <c r="C24">
+        <v>300000</v>
+      </c>
+      <c r="D24">
+        <v>5000000</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="17"/>
+        <v>94</v>
+      </c>
+      <c r="F24">
+        <v>100</v>
+      </c>
+      <c r="G24">
+        <v>100</v>
+      </c>
+      <c r="H24">
+        <f>(B24/(F24*30))</f>
+        <v>10</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="18"/>
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="J24" s="4">
+        <f t="shared" si="19"/>
+        <v>0.93999999999999984</v>
+      </c>
+      <c r="K24" s="4">
+        <f>(J24*(1.5+(F24-G24)/B24))</f>
+        <v>1.4099999999999997</v>
+      </c>
+      <c r="L24" s="3">
+        <f t="shared" ref="L24:L25" si="20">K24/J24</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25">
+        <v>30000</v>
+      </c>
+      <c r="C25">
+        <v>300000</v>
+      </c>
+      <c r="D25">
+        <v>10000000</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="17"/>
+        <v>97</v>
+      </c>
+      <c r="F25">
+        <v>100</v>
+      </c>
+      <c r="G25">
+        <v>100</v>
+      </c>
+      <c r="H25">
+        <f>(B25/(F25*30))</f>
+        <v>10</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="18"/>
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="J25" s="4">
+        <f t="shared" si="19"/>
+        <v>0.96999999999999986</v>
+      </c>
+      <c r="K25" s="4">
+        <f>(J25*(1.5+(F25-G25)/B25))</f>
+        <v>1.4549999999999998</v>
+      </c>
+      <c r="L25" s="3">
         <f t="shared" si="20"/>
-        <v>32.510870909559387</v>
-      </c>
-      <c r="L20" s="3">
-        <f t="shared" si="21"/>
-        <v>1.4899999999999998</v>
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/development/mini games/economy/prices.xlsx
+++ b/development/mini games/economy/prices.xlsx
@@ -61,7 +61,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,15 +83,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -106,11 +99,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -138,22 +126,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="3" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="Bad" xfId="3" builtinId="27"/>
+  <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Input" xfId="2" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -458,7 +443,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7:J10"/>
+      <selection activeCell="J22" sqref="J22:J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,20 +518,20 @@
         <v>100</v>
       </c>
       <c r="H2">
-        <f t="shared" ref="H2:H5" si="1">(B2/(F2*30))</f>
-        <v>10</v>
+        <f t="shared" ref="H2:H5" si="1">(B2*B2/(F2*30))</f>
+        <v>300000</v>
       </c>
       <c r="I2">
         <f t="shared" ref="I2:I5" si="2">1-((C2-B2)/C2)</f>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="J2" s="4">
-        <f>E2*(I2/H2)</f>
-        <v>0.96999999999999986</v>
+        <f>E2*(I2/H2)*100000</f>
+        <v>3.2333333333333325</v>
       </c>
       <c r="K2" s="4">
         <f>(J2*(1.5+(F2-G2)/B2))</f>
-        <v>1.4549999999999998</v>
+        <v>4.8499999999999988</v>
       </c>
       <c r="L2" s="3">
         <f>K2/J2</f>
@@ -578,19 +563,19 @@
       </c>
       <c r="H3">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>150000</v>
       </c>
       <c r="I3">
         <f t="shared" si="2"/>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="J3" s="4">
-        <f>E3*(I3/H3)</f>
-        <v>1.9399999999999997</v>
+        <f t="shared" ref="J3:J5" si="3">E3*(I3/H3)*100000</f>
+        <v>6.466666666666665</v>
       </c>
       <c r="K3" s="4">
         <f>(J3*(1.5+(F3-G3)/B3))</f>
-        <v>2.9164666666666665</v>
+        <v>9.721555555555554</v>
       </c>
       <c r="L3" s="3">
         <f>K3/J3</f>
@@ -622,22 +607,22 @@
       </c>
       <c r="H4">
         <f t="shared" si="1"/>
-        <v>3.3333333333333335</v>
+        <v>100000</v>
       </c>
       <c r="I4">
         <f t="shared" si="2"/>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="J4" s="4">
-        <f>E4*(I4/H4)</f>
-        <v>2.9099999999999993</v>
+        <f t="shared" si="3"/>
+        <v>9.6999999999999975</v>
       </c>
       <c r="K4" s="4">
         <f>(J4*(1.5+(F4-G4)/B4))</f>
-        <v>4.3843999999999985</v>
+        <v>14.614666666666663</v>
       </c>
       <c r="L4" s="3">
-        <f t="shared" ref="L4:L5" si="3">K4/J4</f>
+        <f t="shared" ref="L4:L5" si="4">K4/J4</f>
         <v>1.5066666666666666</v>
       </c>
     </row>
@@ -666,23 +651,23 @@
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
-        <v>2.5</v>
+        <v>75000</v>
       </c>
       <c r="I5">
         <f t="shared" si="2"/>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="J5" s="4">
-        <f>E5*(I5/H5)</f>
-        <v>3.8799999999999994</v>
+        <f t="shared" si="3"/>
+        <v>12.93333333333333</v>
       </c>
       <c r="K5" s="4">
         <f>(J5*(1.5+(F5-G5)/B5))</f>
-        <v>5.8587999999999996</v>
+        <v>19.52933333333333</v>
       </c>
       <c r="L5" s="3">
-        <f t="shared" si="3"/>
-        <v>1.51</v>
+        <f t="shared" si="4"/>
+        <v>1.5100000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -704,7 +689,7 @@
         <v>10000000</v>
       </c>
       <c r="E7">
-        <f t="shared" ref="E7:E10" si="4">((D7-C7)/D7)*100</f>
+        <f t="shared" ref="E7:E10" si="5">((D7-C7)/D7)*100</f>
         <v>97</v>
       </c>
       <c r="F7">
@@ -714,20 +699,20 @@
         <v>100</v>
       </c>
       <c r="H7">
-        <f t="shared" ref="H7:H10" si="5">(B7/(F7*30))</f>
-        <v>0.33333333333333331</v>
+        <f>(B7*B7/(F7*30))</f>
+        <v>333.33333333333331</v>
       </c>
       <c r="I7">
         <f>1-((C7-B7)/C7)</f>
         <v>3.3333333333332993E-3</v>
       </c>
-      <c r="J7" s="5">
-        <f t="shared" ref="J7:J10" si="6">E7*(I7/H7)</f>
-        <v>0.96999999999999009</v>
+      <c r="J7" s="4">
+        <f t="shared" ref="J7:J10" si="6">E7*(I7/H7)*100000</f>
+        <v>96.999999999999019</v>
       </c>
       <c r="K7" s="4">
         <f>(J7*(1.5+(F7-G7)/B7))</f>
-        <v>1.4549999999999852</v>
+        <v>145.49999999999852</v>
       </c>
       <c r="L7" s="3">
         <f>K7/J7</f>
@@ -748,7 +733,7 @@
         <v>10000000</v>
       </c>
       <c r="E8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>97</v>
       </c>
       <c r="F8">
@@ -758,24 +743,24 @@
         <v>100</v>
       </c>
       <c r="H8">
-        <f t="shared" si="5"/>
-        <v>2.5</v>
+        <f t="shared" ref="H8:H10" si="7">(B8*B8/(F8*30))</f>
+        <v>18750</v>
       </c>
       <c r="I8">
-        <f t="shared" ref="I8:I10" si="7">1-((C8-B8)/C8)</f>
+        <f t="shared" ref="I8:I10" si="8">1-((C8-B8)/C8)</f>
         <v>2.5000000000000022E-2</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="4">
         <f t="shared" si="6"/>
-        <v>0.97000000000000086</v>
+        <v>12.933333333333342</v>
       </c>
       <c r="K8" s="4">
         <f>(J8*(1.5+(F8-G8)/B8))</f>
-        <v>1.4550000000000014</v>
+        <v>19.400000000000013</v>
       </c>
       <c r="L8" s="3">
         <f>K8/J8</f>
-        <v>1.5000000000000002</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -792,7 +777,7 @@
         <v>10000000</v>
       </c>
       <c r="E9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>97</v>
       </c>
       <c r="F9">
@@ -802,24 +787,24 @@
         <v>100</v>
       </c>
       <c r="H9">
-        <f t="shared" si="5"/>
-        <v>5</v>
+        <f t="shared" si="7"/>
+        <v>75000</v>
       </c>
       <c r="I9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="4">
         <f t="shared" si="6"/>
-        <v>0.97000000000000086</v>
+        <v>6.4666666666666712</v>
       </c>
       <c r="K9" s="4">
         <f>(J9*(1.5+(F9-G9)/B9))</f>
-        <v>1.4550000000000014</v>
+        <v>9.7000000000000064</v>
       </c>
       <c r="L9" s="3">
-        <f t="shared" ref="L9:L10" si="8">K9/J9</f>
-        <v>1.5000000000000002</v>
+        <f t="shared" ref="L9:L10" si="9">K9/J9</f>
+        <v>1.5</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -836,7 +821,7 @@
         <v>10000000</v>
       </c>
       <c r="E10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>97</v>
       </c>
       <c r="F10">
@@ -846,23 +831,23 @@
         <v>100</v>
       </c>
       <c r="H10">
-        <f t="shared" si="5"/>
-        <v>10</v>
+        <f t="shared" si="7"/>
+        <v>300000</v>
       </c>
       <c r="I10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9.9999999999999978E-2</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="4">
         <f t="shared" si="6"/>
-        <v>0.96999999999999986</v>
+        <v>3.2333333333333325</v>
       </c>
       <c r="K10" s="4">
         <f>(J10*(1.5+(F10-G10)/B10))</f>
-        <v>1.4549999999999998</v>
+        <v>4.8499999999999988</v>
       </c>
       <c r="L10" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.5</v>
       </c>
     </row>
@@ -895,20 +880,20 @@
         <v>100</v>
       </c>
       <c r="H12">
-        <f t="shared" ref="H12:H15" si="9">(B12/(F12*30))</f>
-        <v>1.6666666666666667</v>
+        <f t="shared" ref="H12:H15" si="10">(B12*B12/(F12*30))</f>
+        <v>8333.3333333333339</v>
       </c>
       <c r="I12">
-        <f t="shared" ref="I12:I15" si="10">1-((C12-B12)/C12)</f>
+        <f t="shared" ref="I12:I15" si="11">1-((C12-B12)/C12)</f>
         <v>0.16666666666666663</v>
       </c>
       <c r="J12" s="4">
-        <f t="shared" ref="J12:J15" si="11">E12*(I12/H12)</f>
-        <v>9.9699999999999989</v>
+        <f t="shared" ref="J12:J15" si="12">E12*(I12/H12)*100000</f>
+        <v>199.39999999999998</v>
       </c>
       <c r="K12" s="4">
         <f>(J12*(1.5+(F12-G12)/B12))</f>
-        <v>14.954999999999998</v>
+        <v>299.09999999999997</v>
       </c>
       <c r="L12" s="3">
         <f>K12/J12</f>
@@ -939,20 +924,20 @@
         <v>100</v>
       </c>
       <c r="H13">
-        <f t="shared" si="9"/>
-        <v>1.6666666666666667</v>
+        <f t="shared" si="10"/>
+        <v>8333.3333333333339</v>
       </c>
       <c r="I13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6.6666666666666652E-2</v>
       </c>
       <c r="J13" s="4">
-        <f t="shared" si="11"/>
-        <v>3.9699999999999989</v>
+        <f t="shared" si="12"/>
+        <v>79.399999999999977</v>
       </c>
       <c r="K13" s="4">
         <f>(J13*(1.5+(F13-G13)/B13))</f>
-        <v>5.9549999999999983</v>
+        <v>119.09999999999997</v>
       </c>
       <c r="L13" s="3">
         <f>K13/J13</f>
@@ -983,24 +968,24 @@
         <v>100</v>
       </c>
       <c r="H14">
-        <f t="shared" si="9"/>
-        <v>1.6666666666666667</v>
+        <f t="shared" si="10"/>
+        <v>8333.3333333333339</v>
       </c>
       <c r="I14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3.3333333333333326E-2</v>
       </c>
       <c r="J14" s="4">
-        <f t="shared" si="11"/>
-        <v>1.9699999999999993</v>
+        <f t="shared" si="12"/>
+        <v>39.399999999999984</v>
       </c>
       <c r="K14" s="4">
         <f>(J14*(1.5+(F14-G14)/B14))</f>
-        <v>2.9549999999999992</v>
+        <v>59.09999999999998</v>
       </c>
       <c r="L14" s="3">
-        <f t="shared" ref="L14:L15" si="12">K14/J14</f>
-        <v>1.5000000000000002</v>
+        <f t="shared" ref="L14:L15" si="13">K14/J14</f>
+        <v>1.5</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -1027,24 +1012,24 @@
         <v>100</v>
       </c>
       <c r="H15">
-        <f t="shared" si="9"/>
-        <v>1.6666666666666667</v>
+        <f t="shared" si="10"/>
+        <v>8333.3333333333339</v>
       </c>
       <c r="I15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.6666666666666718E-2</v>
       </c>
       <c r="J15" s="4">
-        <f t="shared" si="11"/>
-        <v>0.97000000000000308</v>
+        <f t="shared" si="12"/>
+        <v>19.400000000000059</v>
       </c>
       <c r="K15" s="4">
         <f>(J15*(1.5+(F15-G15)/B15))</f>
-        <v>1.4550000000000045</v>
+        <v>29.100000000000087</v>
       </c>
       <c r="L15" s="3">
-        <f t="shared" si="12"/>
-        <v>1.4999999999999998</v>
+        <f t="shared" si="13"/>
+        <v>1.5</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -1066,7 +1051,7 @@
         <v>10000000</v>
       </c>
       <c r="E17">
-        <f t="shared" ref="E17:E20" si="13">((D17-C17)/D17)*100</f>
+        <f t="shared" ref="E17:E20" si="14">((D17-C17)/D17)*100</f>
         <v>97</v>
       </c>
       <c r="F17">
@@ -1076,20 +1061,20 @@
         <v>100</v>
       </c>
       <c r="H17">
-        <f>(B17/(F17*30))</f>
-        <v>10</v>
+        <f t="shared" ref="H17:H20" si="15">(B17*B17/(F17*30))</f>
+        <v>300000</v>
       </c>
       <c r="I17">
-        <f t="shared" ref="I17:I20" si="14">1-((C17-B17)/C17)</f>
+        <f t="shared" ref="I17:I20" si="16">1-((C17-B17)/C17)</f>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="J17" s="4">
-        <f t="shared" ref="J17:J20" si="15">E17*(I17/H17)</f>
-        <v>0.96999999999999986</v>
+        <f t="shared" ref="J17:J20" si="17">E17*(I17/H17)*100000</f>
+        <v>3.2333333333333325</v>
       </c>
       <c r="K17" s="4">
         <f>(J17*(1.5+(F17-G17)/B17))</f>
-        <v>1.4549999999999998</v>
+        <v>4.8499999999999988</v>
       </c>
       <c r="L17" s="3">
         <f>K17/J17</f>
@@ -1110,7 +1095,7 @@
         <v>10000000</v>
       </c>
       <c r="E18">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>97</v>
       </c>
       <c r="F18">
@@ -1120,20 +1105,20 @@
         <v>200</v>
       </c>
       <c r="H18">
-        <f>(B18/(F18*30))</f>
-        <v>10</v>
+        <f t="shared" si="15"/>
+        <v>300000</v>
       </c>
       <c r="I18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="J18" s="4">
-        <f t="shared" si="15"/>
-        <v>0.96999999999999986</v>
+        <f t="shared" si="17"/>
+        <v>3.2333333333333325</v>
       </c>
       <c r="K18" s="4">
         <f>(J18*(1.5+(F18-G18)/B18))</f>
-        <v>1.4517666666666664</v>
+        <v>4.8392222222222205</v>
       </c>
       <c r="L18" s="3">
         <f>K18/J18</f>
@@ -1154,7 +1139,7 @@
         <v>10000000</v>
       </c>
       <c r="E19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>97</v>
       </c>
       <c r="F19">
@@ -1164,23 +1149,23 @@
         <v>300</v>
       </c>
       <c r="H19">
-        <f>(B19/(F19*30))</f>
-        <v>10</v>
+        <f t="shared" si="15"/>
+        <v>300000</v>
       </c>
       <c r="I19">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="J19" s="4">
-        <f t="shared" si="15"/>
-        <v>0.96999999999999986</v>
+        <f t="shared" si="17"/>
+        <v>3.2333333333333325</v>
       </c>
       <c r="K19" s="4">
         <f>(J19*(1.5+(F19-G19)/B19))</f>
-        <v>1.4485333333333332</v>
+        <v>4.8284444444444432</v>
       </c>
       <c r="L19" s="3">
-        <f t="shared" ref="L19:L20" si="16">K19/J19</f>
+        <f t="shared" ref="L19:L20" si="18">K19/J19</f>
         <v>1.4933333333333334</v>
       </c>
     </row>
@@ -1198,7 +1183,7 @@
         <v>10000000</v>
       </c>
       <c r="E20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>97</v>
       </c>
       <c r="F20">
@@ -1208,24 +1193,24 @@
         <v>400</v>
       </c>
       <c r="H20">
-        <f>(B20/(F20*30))</f>
-        <v>10</v>
+        <f t="shared" si="15"/>
+        <v>300000</v>
       </c>
       <c r="I20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="J20" s="4">
-        <f t="shared" si="15"/>
-        <v>0.96999999999999986</v>
+        <f t="shared" si="17"/>
+        <v>3.2333333333333325</v>
       </c>
       <c r="K20" s="4">
         <f>(J20*(1.5+(F20-G20)/B20))</f>
-        <v>1.4452999999999998</v>
+        <v>4.817666666666665</v>
       </c>
       <c r="L20" s="3">
-        <f t="shared" si="16"/>
-        <v>1.49</v>
+        <f t="shared" si="18"/>
+        <v>1.4899999999999998</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -1242,7 +1227,7 @@
         <v>350000</v>
       </c>
       <c r="E22">
-        <f t="shared" ref="E22:E25" si="17">((D22-C22)/D22)*100</f>
+        <f t="shared" ref="E22:E25" si="19">((D22-C22)/D22)*100</f>
         <v>14.285714285714285</v>
       </c>
       <c r="F22">
@@ -1252,20 +1237,20 @@
         <v>100</v>
       </c>
       <c r="H22">
-        <f>(B22/(F22*30))</f>
-        <v>10</v>
+        <f t="shared" ref="H22:H25" si="20">(B22*B22/(F22*30))</f>
+        <v>300000</v>
       </c>
       <c r="I22">
-        <f t="shared" ref="I22:I25" si="18">1-((C22-B22)/C22)</f>
+        <f t="shared" ref="I22:I25" si="21">1-((C22-B22)/C22)</f>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="J22" s="4">
-        <f t="shared" ref="J22:J25" si="19">E22*(I22/H22)</f>
-        <v>0.14285714285714282</v>
+        <f t="shared" ref="J22:J25" si="22">E22*(I22/H22)*100000</f>
+        <v>0.47619047619047605</v>
       </c>
       <c r="K22" s="4">
         <f>(J22*(1.5+(F22-G22)/B22))</f>
-        <v>0.21428571428571425</v>
+        <v>0.71428571428571408</v>
       </c>
       <c r="L22" s="3">
         <f>K22/J22</f>
@@ -1286,7 +1271,7 @@
         <v>1000000</v>
       </c>
       <c r="E23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>70</v>
       </c>
       <c r="F23">
@@ -1296,20 +1281,20 @@
         <v>100</v>
       </c>
       <c r="H23">
-        <f>(B23/(F23*30))</f>
-        <v>10</v>
+        <f t="shared" si="20"/>
+        <v>300000</v>
       </c>
       <c r="I23">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="J23" s="4">
-        <f t="shared" si="19"/>
-        <v>0.69999999999999984</v>
+        <f t="shared" si="22"/>
+        <v>2.333333333333333</v>
       </c>
       <c r="K23" s="4">
         <f>(J23*(1.5+(F23-G23)/B23))</f>
-        <v>1.0499999999999998</v>
+        <v>3.4999999999999996</v>
       </c>
       <c r="L23" s="3">
         <f>K23/J23</f>
@@ -1330,7 +1315,7 @@
         <v>5000000</v>
       </c>
       <c r="E24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>94</v>
       </c>
       <c r="F24">
@@ -1340,23 +1325,23 @@
         <v>100</v>
       </c>
       <c r="H24">
-        <f>(B24/(F24*30))</f>
-        <v>10</v>
+        <f t="shared" si="20"/>
+        <v>300000</v>
       </c>
       <c r="I24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="J24" s="4">
-        <f t="shared" si="19"/>
-        <v>0.93999999999999984</v>
+        <f t="shared" si="22"/>
+        <v>3.1333333333333329</v>
       </c>
       <c r="K24" s="4">
         <f>(J24*(1.5+(F24-G24)/B24))</f>
-        <v>1.4099999999999997</v>
+        <v>4.6999999999999993</v>
       </c>
       <c r="L24" s="3">
-        <f t="shared" ref="L24:L25" si="20">K24/J24</f>
+        <f t="shared" ref="L24:L25" si="23">K24/J24</f>
         <v>1.5</v>
       </c>
     </row>
@@ -1374,7 +1359,7 @@
         <v>10000000</v>
       </c>
       <c r="E25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>97</v>
       </c>
       <c r="F25">
@@ -1384,23 +1369,23 @@
         <v>100</v>
       </c>
       <c r="H25">
-        <f>(B25/(F25*30))</f>
-        <v>10</v>
+        <f t="shared" si="20"/>
+        <v>300000</v>
       </c>
       <c r="I25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="J25" s="4">
-        <f t="shared" si="19"/>
-        <v>0.96999999999999986</v>
+        <f t="shared" si="22"/>
+        <v>3.2333333333333325</v>
       </c>
       <c r="K25" s="4">
         <f>(J25*(1.5+(F25-G25)/B25))</f>
-        <v>1.4549999999999998</v>
+        <v>4.8499999999999988</v>
       </c>
       <c r="L25" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.5</v>
       </c>
     </row>

--- a/development/mini games/economy/prices.xlsx
+++ b/development/mini games/economy/prices.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="12">
   <si>
     <t>player buy price</t>
   </si>
@@ -61,7 +61,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,8 +83,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -99,6 +106,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -126,19 +138,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="0" xfId="3" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="3" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Input" xfId="2" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -440,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22:J25"/>
+      <selection activeCell="J7" sqref="J7:L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -680,7 +696,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>300000</v>
@@ -689,7 +705,7 @@
         <v>10000000</v>
       </c>
       <c r="E7">
-        <f t="shared" ref="E7:E10" si="5">((D7-C7)/D7)*100</f>
+        <f t="shared" ref="E7" si="5">((D7-C7)/D7)*100</f>
         <v>97</v>
       </c>
       <c r="F7">
@@ -700,23 +716,23 @@
       </c>
       <c r="H7">
         <f>(B7*B7/(F7*30))</f>
-        <v>333.33333333333331</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <f>1-((C7-B7)/C7)</f>
-        <v>3.3333333333332993E-3</v>
-      </c>
-      <c r="J7" s="4">
-        <f t="shared" ref="J7:J10" si="6">E7*(I7/H7)*100000</f>
-        <v>96.999999999999019</v>
-      </c>
-      <c r="K7" s="4">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5" t="e">
+        <f t="shared" ref="J7" si="6">E7*(I7/H7)*100000</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K7" s="5" t="e">
         <f>(J7*(1.5+(F7-G7)/B7))</f>
-        <v>145.49999999999852</v>
-      </c>
-      <c r="L7" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L7" s="6" t="e">
         <f>K7/J7</f>
-        <v>1.5</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -724,7 +740,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7500</v>
+        <v>1000</v>
       </c>
       <c r="C8">
         <v>300000</v>
@@ -733,7 +749,7 @@
         <v>10000000</v>
       </c>
       <c r="E8">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="E8:E11" si="7">((D8-C8)/D8)*100</f>
         <v>97</v>
       </c>
       <c r="F8">
@@ -743,20 +759,20 @@
         <v>100</v>
       </c>
       <c r="H8">
-        <f t="shared" ref="H8:H10" si="7">(B8*B8/(F8*30))</f>
-        <v>18750</v>
+        <f>(B8*B8/(F8*30))</f>
+        <v>333.33333333333331</v>
       </c>
       <c r="I8">
-        <f t="shared" ref="I8:I10" si="8">1-((C8-B8)/C8)</f>
-        <v>2.5000000000000022E-2</v>
+        <f>1-((C8-B8)/C8)</f>
+        <v>3.3333333333332993E-3</v>
       </c>
       <c r="J8" s="4">
-        <f t="shared" si="6"/>
-        <v>12.933333333333342</v>
+        <f t="shared" ref="J8:J11" si="8">E8*(I8/H8)*100000</f>
+        <v>96.999999999999019</v>
       </c>
       <c r="K8" s="4">
         <f>(J8*(1.5+(F8-G8)/B8))</f>
-        <v>19.400000000000013</v>
+        <v>145.49999999999852</v>
       </c>
       <c r="L8" s="3">
         <f>K8/J8</f>
@@ -768,7 +784,7 @@
         <v>6</v>
       </c>
       <c r="B9">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="C9">
         <v>300000</v>
@@ -777,7 +793,7 @@
         <v>10000000</v>
       </c>
       <c r="E9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>97</v>
       </c>
       <c r="F9">
@@ -787,23 +803,23 @@
         <v>100</v>
       </c>
       <c r="H9">
-        <f t="shared" si="7"/>
-        <v>75000</v>
+        <f t="shared" ref="H9:H11" si="9">(B9*B9/(F9*30))</f>
+        <v>18750</v>
       </c>
       <c r="I9">
+        <f t="shared" ref="I9:I11" si="10">1-((C9-B9)/C9)</f>
+        <v>2.5000000000000022E-2</v>
+      </c>
+      <c r="J9" s="4">
         <f t="shared" si="8"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="J9" s="4">
-        <f t="shared" si="6"/>
-        <v>6.4666666666666712</v>
+        <v>12.933333333333342</v>
       </c>
       <c r="K9" s="4">
         <f>(J9*(1.5+(F9-G9)/B9))</f>
-        <v>9.7000000000000064</v>
+        <v>19.400000000000013</v>
       </c>
       <c r="L9" s="3">
-        <f t="shared" ref="L9:L10" si="9">K9/J9</f>
+        <f>K9/J9</f>
         <v>1.5</v>
       </c>
     </row>
@@ -812,7 +828,7 @@
         <v>6</v>
       </c>
       <c r="B10">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="C10">
         <v>300000</v>
@@ -821,7 +837,7 @@
         <v>10000000</v>
       </c>
       <c r="E10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>97</v>
       </c>
       <c r="F10">
@@ -831,74 +847,74 @@
         <v>100</v>
       </c>
       <c r="H10">
-        <f t="shared" si="7"/>
-        <v>300000</v>
+        <f t="shared" si="9"/>
+        <v>75000</v>
       </c>
       <c r="I10">
+        <f t="shared" si="10"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="J10" s="4">
         <f t="shared" si="8"/>
-        <v>9.9999999999999978E-2</v>
-      </c>
-      <c r="J10" s="4">
-        <f t="shared" si="6"/>
-        <v>3.2333333333333325</v>
+        <v>6.4666666666666712</v>
       </c>
       <c r="K10" s="4">
         <f>(J10*(1.5+(F10-G10)/B10))</f>
+        <v>9.7000000000000064</v>
+      </c>
+      <c r="L10" s="3">
+        <f t="shared" ref="L10:L11" si="11">K10/J10</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>30000</v>
+      </c>
+      <c r="C11">
+        <v>300000</v>
+      </c>
+      <c r="D11">
+        <v>10000000</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="7"/>
+        <v>97</v>
+      </c>
+      <c r="F11">
+        <v>100</v>
+      </c>
+      <c r="G11">
+        <v>100</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="9"/>
+        <v>300000</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="10"/>
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" si="8"/>
+        <v>3.2333333333333325</v>
+      </c>
+      <c r="K11" s="4">
+        <f>(J11*(1.5+(F11-G11)/B11))</f>
         <v>4.8499999999999988</v>
       </c>
-      <c r="L10" s="3">
-        <f t="shared" si="9"/>
+      <c r="L11" s="3">
+        <f t="shared" si="11"/>
         <v>1.5</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="3"/>
-    </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12">
-        <v>5000</v>
-      </c>
-      <c r="C12">
-        <v>30000</v>
-      </c>
-      <c r="D12">
-        <v>10000000</v>
-      </c>
-      <c r="E12">
-        <f>((D12-C12)/D12)*100</f>
-        <v>99.7</v>
-      </c>
-      <c r="F12">
-        <v>100</v>
-      </c>
-      <c r="G12">
-        <v>100</v>
-      </c>
-      <c r="H12">
-        <f t="shared" ref="H12:H15" si="10">(B12*B12/(F12*30))</f>
-        <v>8333.3333333333339</v>
-      </c>
-      <c r="I12">
-        <f t="shared" ref="I12:I15" si="11">1-((C12-B12)/C12)</f>
-        <v>0.16666666666666663</v>
-      </c>
-      <c r="J12" s="4">
-        <f t="shared" ref="J12:J15" si="12">E12*(I12/H12)*100000</f>
-        <v>199.39999999999998</v>
-      </c>
-      <c r="K12" s="4">
-        <f>(J12*(1.5+(F12-G12)/B12))</f>
-        <v>299.09999999999997</v>
-      </c>
-      <c r="L12" s="3">
-        <f>K12/J12</f>
-        <v>1.5</v>
-      </c>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="3"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -908,14 +924,14 @@
         <v>5000</v>
       </c>
       <c r="C13">
-        <v>75000</v>
+        <v>30000</v>
       </c>
       <c r="D13">
         <v>10000000</v>
       </c>
       <c r="E13">
         <f>((D13-C13)/D13)*100</f>
-        <v>99.25</v>
+        <v>99.7</v>
       </c>
       <c r="F13">
         <v>100</v>
@@ -924,20 +940,20 @@
         <v>100</v>
       </c>
       <c r="H13">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="H13:H16" si="12">(B13*B13/(F13*30))</f>
         <v>8333.3333333333339</v>
       </c>
       <c r="I13">
-        <f t="shared" si="11"/>
-        <v>6.6666666666666652E-2</v>
+        <f t="shared" ref="I13:I16" si="13">1-((C13-B13)/C13)</f>
+        <v>0.16666666666666663</v>
       </c>
       <c r="J13" s="4">
-        <f t="shared" si="12"/>
-        <v>79.399999999999977</v>
+        <f t="shared" ref="J13:J16" si="14">E13*(I13/H13)*100000</f>
+        <v>199.39999999999998</v>
       </c>
       <c r="K13" s="4">
         <f>(J13*(1.5+(F13-G13)/B13))</f>
-        <v>119.09999999999997</v>
+        <v>299.09999999999997</v>
       </c>
       <c r="L13" s="3">
         <f>K13/J13</f>
@@ -952,14 +968,14 @@
         <v>5000</v>
       </c>
       <c r="C14">
-        <v>150000</v>
+        <v>75000</v>
       </c>
       <c r="D14">
         <v>10000000</v>
       </c>
       <c r="E14">
         <f>((D14-C14)/D14)*100</f>
-        <v>98.5</v>
+        <v>99.25</v>
       </c>
       <c r="F14">
         <v>100</v>
@@ -968,23 +984,23 @@
         <v>100</v>
       </c>
       <c r="H14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>8333.3333333333339</v>
       </c>
       <c r="I14">
-        <f t="shared" si="11"/>
-        <v>3.3333333333333326E-2</v>
+        <f t="shared" si="13"/>
+        <v>6.6666666666666652E-2</v>
       </c>
       <c r="J14" s="4">
-        <f t="shared" si="12"/>
-        <v>39.399999999999984</v>
+        <f t="shared" si="14"/>
+        <v>79.399999999999977</v>
       </c>
       <c r="K14" s="4">
         <f>(J14*(1.5+(F14-G14)/B14))</f>
-        <v>59.09999999999998</v>
+        <v>119.09999999999997</v>
       </c>
       <c r="L14" s="3">
-        <f t="shared" ref="L14:L15" si="13">K14/J14</f>
+        <f>K14/J14</f>
         <v>1.5</v>
       </c>
     </row>
@@ -996,14 +1012,14 @@
         <v>5000</v>
       </c>
       <c r="C15">
-        <v>300000</v>
+        <v>150000</v>
       </c>
       <c r="D15">
         <v>10000000</v>
       </c>
       <c r="E15">
         <f>((D15-C15)/D15)*100</f>
-        <v>97</v>
+        <v>98.5</v>
       </c>
       <c r="F15">
         <v>100</v>
@@ -1012,74 +1028,74 @@
         <v>100</v>
       </c>
       <c r="H15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>8333.3333333333339</v>
       </c>
       <c r="I15">
-        <f t="shared" si="11"/>
-        <v>1.6666666666666718E-2</v>
+        <f t="shared" si="13"/>
+        <v>3.3333333333333326E-2</v>
       </c>
       <c r="J15" s="4">
-        <f t="shared" si="12"/>
-        <v>19.400000000000059</v>
+        <f t="shared" si="14"/>
+        <v>39.399999999999984</v>
       </c>
       <c r="K15" s="4">
         <f>(J15*(1.5+(F15-G15)/B15))</f>
+        <v>59.09999999999998</v>
+      </c>
+      <c r="L15" s="3">
+        <f t="shared" ref="L15:L16" si="15">K15/J15</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <v>5000</v>
+      </c>
+      <c r="C16">
+        <v>300000</v>
+      </c>
+      <c r="D16">
+        <v>10000000</v>
+      </c>
+      <c r="E16">
+        <f>((D16-C16)/D16)*100</f>
+        <v>97</v>
+      </c>
+      <c r="F16">
+        <v>100</v>
+      </c>
+      <c r="G16">
+        <v>100</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="12"/>
+        <v>8333.3333333333339</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="13"/>
+        <v>1.6666666666666718E-2</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" si="14"/>
+        <v>19.400000000000059</v>
+      </c>
+      <c r="K16" s="4">
+        <f>(J16*(1.5+(F16-G16)/B16))</f>
         <v>29.100000000000087</v>
       </c>
-      <c r="L15" s="3">
-        <f t="shared" si="13"/>
+      <c r="L16" s="3">
+        <f t="shared" si="15"/>
         <v>1.5</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="3"/>
-    </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17">
-        <v>30000</v>
-      </c>
-      <c r="C17">
-        <v>300000</v>
-      </c>
-      <c r="D17">
-        <v>10000000</v>
-      </c>
-      <c r="E17">
-        <f t="shared" ref="E17:E20" si="14">((D17-C17)/D17)*100</f>
-        <v>97</v>
-      </c>
-      <c r="F17">
-        <v>100</v>
-      </c>
-      <c r="G17">
-        <v>100</v>
-      </c>
-      <c r="H17">
-        <f t="shared" ref="H17:H20" si="15">(B17*B17/(F17*30))</f>
-        <v>300000</v>
-      </c>
-      <c r="I17">
-        <f t="shared" ref="I17:I20" si="16">1-((C17-B17)/C17)</f>
-        <v>9.9999999999999978E-2</v>
-      </c>
-      <c r="J17" s="4">
-        <f t="shared" ref="J17:J20" si="17">E17*(I17/H17)*100000</f>
-        <v>3.2333333333333325</v>
-      </c>
-      <c r="K17" s="4">
-        <f>(J17*(1.5+(F17-G17)/B17))</f>
-        <v>4.8499999999999988</v>
-      </c>
-      <c r="L17" s="3">
-        <f>K17/J17</f>
-        <v>1.5</v>
-      </c>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="3"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -1095,34 +1111,34 @@
         <v>10000000</v>
       </c>
       <c r="E18">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="E18:E21" si="16">((D18-C18)/D18)*100</f>
         <v>97</v>
       </c>
       <c r="F18">
         <v>100</v>
       </c>
       <c r="G18">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H18">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="H18:H21" si="17">(B18*B18/(F18*30))</f>
         <v>300000</v>
       </c>
       <c r="I18">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="I18:I21" si="18">1-((C18-B18)/C18)</f>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="J18" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="J18:J21" si="19">E18*(I18/H18)*100000</f>
         <v>3.2333333333333325</v>
       </c>
       <c r="K18" s="4">
         <f>(J18*(1.5+(F18-G18)/B18))</f>
-        <v>4.8392222222222205</v>
+        <v>4.8499999999999988</v>
       </c>
       <c r="L18" s="3">
         <f>K18/J18</f>
-        <v>1.4966666666666666</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1139,34 +1155,34 @@
         <v>10000000</v>
       </c>
       <c r="E19">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>97</v>
       </c>
       <c r="F19">
         <v>100</v>
       </c>
       <c r="G19">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H19">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>300000</v>
       </c>
       <c r="I19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="J19" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>3.2333333333333325</v>
       </c>
       <c r="K19" s="4">
         <f>(J19*(1.5+(F19-G19)/B19))</f>
-        <v>4.8284444444444432</v>
+        <v>4.8392222222222205</v>
       </c>
       <c r="L19" s="3">
-        <f t="shared" ref="L19:L20" si="18">K19/J19</f>
-        <v>1.4933333333333334</v>
+        <f>K19/J19</f>
+        <v>1.4966666666666666</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -1183,78 +1199,78 @@
         <v>10000000</v>
       </c>
       <c r="E20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>97</v>
       </c>
       <c r="F20">
         <v>100</v>
       </c>
       <c r="G20">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>300000</v>
       </c>
       <c r="I20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="J20" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>3.2333333333333325</v>
       </c>
       <c r="K20" s="4">
         <f>(J20*(1.5+(F20-G20)/B20))</f>
+        <v>4.8284444444444432</v>
+      </c>
+      <c r="L20" s="3">
+        <f t="shared" ref="L20:L21" si="20">K20/J20</f>
+        <v>1.4933333333333334</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21">
+        <v>30000</v>
+      </c>
+      <c r="C21">
+        <v>300000</v>
+      </c>
+      <c r="D21">
+        <v>10000000</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="16"/>
+        <v>97</v>
+      </c>
+      <c r="F21">
+        <v>100</v>
+      </c>
+      <c r="G21">
+        <v>400</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="17"/>
+        <v>300000</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="18"/>
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="J21" s="4">
+        <f t="shared" si="19"/>
+        <v>3.2333333333333325</v>
+      </c>
+      <c r="K21" s="4">
+        <f>(J21*(1.5+(F21-G21)/B21))</f>
         <v>4.817666666666665</v>
       </c>
-      <c r="L20" s="3">
-        <f t="shared" si="18"/>
+      <c r="L21" s="3">
+        <f t="shared" si="20"/>
         <v>1.4899999999999998</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22">
-        <v>30000</v>
-      </c>
-      <c r="C22">
-        <v>300000</v>
-      </c>
-      <c r="D22">
-        <v>350000</v>
-      </c>
-      <c r="E22">
-        <f t="shared" ref="E22:E25" si="19">((D22-C22)/D22)*100</f>
-        <v>14.285714285714285</v>
-      </c>
-      <c r="F22">
-        <v>100</v>
-      </c>
-      <c r="G22">
-        <v>100</v>
-      </c>
-      <c r="H22">
-        <f t="shared" ref="H22:H25" si="20">(B22*B22/(F22*30))</f>
-        <v>300000</v>
-      </c>
-      <c r="I22">
-        <f t="shared" ref="I22:I25" si="21">1-((C22-B22)/C22)</f>
-        <v>9.9999999999999978E-2</v>
-      </c>
-      <c r="J22" s="4">
-        <f t="shared" ref="J22:J25" si="22">E22*(I22/H22)*100000</f>
-        <v>0.47619047619047605</v>
-      </c>
-      <c r="K22" s="4">
-        <f>(J22*(1.5+(F22-G22)/B22))</f>
-        <v>0.71428571428571408</v>
-      </c>
-      <c r="L22" s="3">
-        <f>K22/J22</f>
-        <v>1.5</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -1268,11 +1284,11 @@
         <v>300000</v>
       </c>
       <c r="D23">
-        <v>1000000</v>
+        <v>350000</v>
       </c>
       <c r="E23">
-        <f t="shared" si="19"/>
-        <v>70</v>
+        <f t="shared" ref="E23:E26" si="21">((D23-C23)/D23)*100</f>
+        <v>14.285714285714285</v>
       </c>
       <c r="F23">
         <v>100</v>
@@ -1281,20 +1297,20 @@
         <v>100</v>
       </c>
       <c r="H23">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="H23:H26" si="22">(B23*B23/(F23*30))</f>
         <v>300000</v>
       </c>
       <c r="I23">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="I23:I26" si="23">1-((C23-B23)/C23)</f>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="J23" s="4">
-        <f t="shared" si="22"/>
-        <v>2.333333333333333</v>
+        <f t="shared" ref="J23:J26" si="24">E23*(I23/H23)*100000</f>
+        <v>0.47619047619047605</v>
       </c>
       <c r="K23" s="4">
         <f>(J23*(1.5+(F23-G23)/B23))</f>
-        <v>3.4999999999999996</v>
+        <v>0.71428571428571408</v>
       </c>
       <c r="L23" s="3">
         <f>K23/J23</f>
@@ -1312,11 +1328,11 @@
         <v>300000</v>
       </c>
       <c r="D24">
-        <v>5000000</v>
+        <v>1000000</v>
       </c>
       <c r="E24">
-        <f t="shared" si="19"/>
-        <v>94</v>
+        <f t="shared" si="21"/>
+        <v>70</v>
       </c>
       <c r="F24">
         <v>100</v>
@@ -1325,23 +1341,23 @@
         <v>100</v>
       </c>
       <c r="H24">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>300000</v>
       </c>
       <c r="I24">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="J24" s="4">
-        <f t="shared" si="22"/>
-        <v>3.1333333333333329</v>
+        <f t="shared" si="24"/>
+        <v>2.333333333333333</v>
       </c>
       <c r="K24" s="4">
         <f>(J24*(1.5+(F24-G24)/B24))</f>
-        <v>4.6999999999999993</v>
+        <v>3.4999999999999996</v>
       </c>
       <c r="L24" s="3">
-        <f t="shared" ref="L24:L25" si="23">K24/J24</f>
+        <f>K24/J24</f>
         <v>1.5</v>
       </c>
     </row>
@@ -1356,11 +1372,11 @@
         <v>300000</v>
       </c>
       <c r="D25">
-        <v>10000000</v>
+        <v>5000000</v>
       </c>
       <c r="E25">
-        <f t="shared" si="19"/>
-        <v>97</v>
+        <f t="shared" si="21"/>
+        <v>94</v>
       </c>
       <c r="F25">
         <v>100</v>
@@ -1369,23 +1385,67 @@
         <v>100</v>
       </c>
       <c r="H25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>300000</v>
       </c>
       <c r="I25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="J25" s="4">
-        <f t="shared" si="22"/>
-        <v>3.2333333333333325</v>
+        <f t="shared" si="24"/>
+        <v>3.1333333333333329</v>
       </c>
       <c r="K25" s="4">
         <f>(J25*(1.5+(F25-G25)/B25))</f>
+        <v>4.6999999999999993</v>
+      </c>
+      <c r="L25" s="3">
+        <f t="shared" ref="L25:L26" si="25">K25/J25</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26">
+        <v>30000</v>
+      </c>
+      <c r="C26">
+        <v>300000</v>
+      </c>
+      <c r="D26">
+        <v>10000000</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="21"/>
+        <v>97</v>
+      </c>
+      <c r="F26">
+        <v>100</v>
+      </c>
+      <c r="G26">
+        <v>100</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="22"/>
+        <v>300000</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="23"/>
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="J26" s="4">
+        <f t="shared" si="24"/>
+        <v>3.2333333333333325</v>
+      </c>
+      <c r="K26" s="4">
+        <f>(J26*(1.5+(F26-G26)/B26))</f>
         <v>4.8499999999999988</v>
       </c>
-      <c r="L25" s="3">
-        <f t="shared" si="23"/>
+      <c r="L26" s="3">
+        <f t="shared" si="25"/>
         <v>1.5</v>
       </c>
     </row>

--- a/development/mini games/economy/prices.xlsx
+++ b/development/mini games/economy/prices.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="12">
   <si>
     <t>player buy price</t>
   </si>
@@ -456,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7:L7"/>
+      <selection activeCell="J12" sqref="J12:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -740,7 +740,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="C8">
         <v>300000</v>
@@ -749,7 +749,7 @@
         <v>10000000</v>
       </c>
       <c r="E8">
-        <f t="shared" ref="E8:E11" si="7">((D8-C8)/D8)*100</f>
+        <f t="shared" ref="E8:E12" si="7">((D8-C8)/D8)*100</f>
         <v>97</v>
       </c>
       <c r="F8">
@@ -760,19 +760,19 @@
       </c>
       <c r="H8">
         <f>(B8*B8/(F8*30))</f>
-        <v>333.33333333333331</v>
+        <v>3.3333333333333332E-4</v>
       </c>
       <c r="I8">
         <f>1-((C8-B8)/C8)</f>
-        <v>3.3333333333332993E-3</v>
+        <v>3.3333333333551707E-6</v>
       </c>
       <c r="J8" s="4">
-        <f t="shared" ref="J8:J11" si="8">E8*(I8/H8)*100000</f>
-        <v>96.999999999999019</v>
+        <f t="shared" ref="J8:J12" si="8">E8*(I8/H8)*100000</f>
+        <v>97000.000000635468</v>
       </c>
       <c r="K8" s="4">
         <f>(J8*(1.5+(F8-G8)/B8))</f>
-        <v>145.49999999999852</v>
+        <v>145500.00000095321</v>
       </c>
       <c r="L8" s="3">
         <f>K8/J8</f>
@@ -784,7 +784,7 @@
         <v>6</v>
       </c>
       <c r="B9">
-        <v>7500</v>
+        <v>5</v>
       </c>
       <c r="C9">
         <v>300000</v>
@@ -804,19 +804,19 @@
       </c>
       <c r="H9">
         <f t="shared" ref="H9:H11" si="9">(B9*B9/(F9*30))</f>
-        <v>18750</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="I9">
         <f t="shared" ref="I9:I11" si="10">1-((C9-B9)/C9)</f>
-        <v>2.5000000000000022E-2</v>
+        <v>1.6666666666664831E-5</v>
       </c>
       <c r="J9" s="4">
         <f t="shared" si="8"/>
-        <v>12.933333333333342</v>
+        <v>19399.999999997865</v>
       </c>
       <c r="K9" s="4">
         <f>(J9*(1.5+(F9-G9)/B9))</f>
-        <v>19.400000000000013</v>
+        <v>29099.999999996799</v>
       </c>
       <c r="L9" s="3">
         <f>K9/J9</f>
@@ -828,7 +828,7 @@
         <v>6</v>
       </c>
       <c r="B10">
-        <v>15000</v>
+        <v>10</v>
       </c>
       <c r="C10">
         <v>300000</v>
@@ -848,19 +848,19 @@
       </c>
       <c r="H10">
         <f t="shared" si="9"/>
-        <v>75000</v>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="I10">
         <f t="shared" si="10"/>
-        <v>5.0000000000000044E-2</v>
+        <v>3.3333333333329662E-5</v>
       </c>
       <c r="J10" s="4">
         <f t="shared" si="8"/>
-        <v>6.4666666666666712</v>
+        <v>9699.9999999989323</v>
       </c>
       <c r="K10" s="4">
         <f>(J10*(1.5+(F10-G10)/B10))</f>
-        <v>9.7000000000000064</v>
+        <v>14549.999999998399</v>
       </c>
       <c r="L10" s="3">
         <f t="shared" ref="L10:L11" si="11">K10/J10</f>
@@ -872,7 +872,7 @@
         <v>6</v>
       </c>
       <c r="B11">
-        <v>30000</v>
+        <v>50</v>
       </c>
       <c r="C11">
         <v>300000</v>
@@ -892,19 +892,19 @@
       </c>
       <c r="H11">
         <f t="shared" si="9"/>
-        <v>300000</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="I11">
         <f t="shared" si="10"/>
-        <v>9.9999999999999978E-2</v>
+        <v>1.6666666666664831E-4</v>
       </c>
       <c r="J11" s="4">
         <f t="shared" si="8"/>
-        <v>3.2333333333333325</v>
+        <v>1939.9999999997863</v>
       </c>
       <c r="K11" s="4">
         <f>(J11*(1.5+(F11-G11)/B11))</f>
-        <v>4.8499999999999988</v>
+        <v>2909.9999999996794</v>
       </c>
       <c r="L11" s="3">
         <f t="shared" si="11"/>
@@ -912,26 +912,65 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="3"/>
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>100</v>
+      </c>
+      <c r="C12">
+        <v>300000</v>
+      </c>
+      <c r="D12">
+        <v>10000000</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="7"/>
+        <v>97</v>
+      </c>
+      <c r="F12">
+        <v>100</v>
+      </c>
+      <c r="G12">
+        <v>100</v>
+      </c>
+      <c r="H12">
+        <f>(B12*B12/(F12*30))</f>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="I12">
+        <f>1-((C12-B12)/C12)</f>
+        <v>3.3333333333329662E-4</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="8"/>
+        <v>969.99999999989313</v>
+      </c>
+      <c r="K12">
+        <f>(J12*(1.5+(F12-G12)/B12))</f>
+        <v>1454.9999999998397</v>
+      </c>
+      <c r="L12">
+        <f>K12/J12</f>
+        <v>1.5</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
       <c r="B13">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="C13">
-        <v>30000</v>
+        <v>300000</v>
       </c>
       <c r="D13">
         <v>10000000</v>
       </c>
       <c r="E13">
-        <f>((D13-C13)/D13)*100</f>
-        <v>99.7</v>
+        <f t="shared" ref="E13:E16" si="12">((D13-C13)/D13)*100</f>
+        <v>97</v>
       </c>
       <c r="F13">
         <v>100</v>
@@ -940,20 +979,20 @@
         <v>100</v>
       </c>
       <c r="H13">
-        <f t="shared" ref="H13:H16" si="12">(B13*B13/(F13*30))</f>
-        <v>8333.3333333333339</v>
+        <f>(B13*B13/(F13*30))</f>
+        <v>333.33333333333331</v>
       </c>
       <c r="I13">
-        <f t="shared" ref="I13:I16" si="13">1-((C13-B13)/C13)</f>
-        <v>0.16666666666666663</v>
+        <f>1-((C13-B13)/C13)</f>
+        <v>3.3333333333332993E-3</v>
       </c>
       <c r="J13" s="4">
-        <f t="shared" ref="J13:J16" si="14">E13*(I13/H13)*100000</f>
-        <v>199.39999999999998</v>
+        <f t="shared" ref="J13:J16" si="13">E13*(I13/H13)*100000</f>
+        <v>96.999999999999019</v>
       </c>
       <c r="K13" s="4">
         <f>(J13*(1.5+(F13-G13)/B13))</f>
-        <v>299.09999999999997</v>
+        <v>145.49999999999852</v>
       </c>
       <c r="L13" s="3">
         <f>K13/J13</f>
@@ -965,17 +1004,17 @@
         <v>6</v>
       </c>
       <c r="B14">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="C14">
-        <v>75000</v>
+        <v>300000</v>
       </c>
       <c r="D14">
         <v>10000000</v>
       </c>
       <c r="E14">
-        <f>((D14-C14)/D14)*100</f>
-        <v>99.25</v>
+        <f t="shared" si="12"/>
+        <v>97</v>
       </c>
       <c r="F14">
         <v>100</v>
@@ -984,20 +1023,20 @@
         <v>100</v>
       </c>
       <c r="H14">
-        <f t="shared" si="12"/>
-        <v>8333.3333333333339</v>
+        <f t="shared" ref="H14:H16" si="14">(B14*B14/(F14*30))</f>
+        <v>18750</v>
       </c>
       <c r="I14">
+        <f t="shared" ref="I14:I16" si="15">1-((C14-B14)/C14)</f>
+        <v>2.5000000000000022E-2</v>
+      </c>
+      <c r="J14" s="4">
         <f t="shared" si="13"/>
-        <v>6.6666666666666652E-2</v>
-      </c>
-      <c r="J14" s="4">
-        <f t="shared" si="14"/>
-        <v>79.399999999999977</v>
+        <v>12.933333333333342</v>
       </c>
       <c r="K14" s="4">
         <f>(J14*(1.5+(F14-G14)/B14))</f>
-        <v>119.09999999999997</v>
+        <v>19.400000000000013</v>
       </c>
       <c r="L14" s="3">
         <f>K14/J14</f>
@@ -1009,17 +1048,17 @@
         <v>6</v>
       </c>
       <c r="B15">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="C15">
-        <v>150000</v>
+        <v>300000</v>
       </c>
       <c r="D15">
         <v>10000000</v>
       </c>
       <c r="E15">
-        <f>((D15-C15)/D15)*100</f>
-        <v>98.5</v>
+        <f t="shared" si="12"/>
+        <v>97</v>
       </c>
       <c r="F15">
         <v>100</v>
@@ -1028,23 +1067,23 @@
         <v>100</v>
       </c>
       <c r="H15">
-        <f t="shared" si="12"/>
-        <v>8333.3333333333339</v>
+        <f t="shared" si="14"/>
+        <v>75000</v>
       </c>
       <c r="I15">
+        <f t="shared" si="15"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="J15" s="4">
         <f t="shared" si="13"/>
-        <v>3.3333333333333326E-2</v>
-      </c>
-      <c r="J15" s="4">
-        <f t="shared" si="14"/>
-        <v>39.399999999999984</v>
+        <v>6.4666666666666712</v>
       </c>
       <c r="K15" s="4">
         <f>(J15*(1.5+(F15-G15)/B15))</f>
-        <v>59.09999999999998</v>
+        <v>9.7000000000000064</v>
       </c>
       <c r="L15" s="3">
-        <f t="shared" ref="L15:L16" si="15">K15/J15</f>
+        <f t="shared" ref="L15:L16" si="16">K15/J15</f>
         <v>1.5</v>
       </c>
     </row>
@@ -1053,7 +1092,7 @@
         <v>6</v>
       </c>
       <c r="B16">
-        <v>5000</v>
+        <v>30000</v>
       </c>
       <c r="C16">
         <v>300000</v>
@@ -1062,7 +1101,7 @@
         <v>10000000</v>
       </c>
       <c r="E16">
-        <f>((D16-C16)/D16)*100</f>
+        <f t="shared" si="12"/>
         <v>97</v>
       </c>
       <c r="F16">
@@ -1072,23 +1111,23 @@
         <v>100</v>
       </c>
       <c r="H16">
-        <f t="shared" si="12"/>
-        <v>8333.3333333333339</v>
+        <f t="shared" si="14"/>
+        <v>300000</v>
       </c>
       <c r="I16">
+        <f t="shared" si="15"/>
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="J16" s="4">
         <f t="shared" si="13"/>
-        <v>1.6666666666666718E-2</v>
-      </c>
-      <c r="J16" s="4">
-        <f t="shared" si="14"/>
-        <v>19.400000000000059</v>
+        <v>3.2333333333333325</v>
       </c>
       <c r="K16" s="4">
         <f>(J16*(1.5+(F16-G16)/B16))</f>
-        <v>29.100000000000087</v>
+        <v>4.8499999999999988</v>
       </c>
       <c r="L16" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.5</v>
       </c>
     </row>
@@ -1102,17 +1141,17 @@
         <v>6</v>
       </c>
       <c r="B18">
+        <v>5000</v>
+      </c>
+      <c r="C18">
         <v>30000</v>
       </c>
-      <c r="C18">
-        <v>300000</v>
-      </c>
       <c r="D18">
         <v>10000000</v>
       </c>
       <c r="E18">
-        <f t="shared" ref="E18:E21" si="16">((D18-C18)/D18)*100</f>
-        <v>97</v>
+        <f>((D18-C18)/D18)*100</f>
+        <v>99.7</v>
       </c>
       <c r="F18">
         <v>100</v>
@@ -1122,19 +1161,19 @@
       </c>
       <c r="H18">
         <f t="shared" ref="H18:H21" si="17">(B18*B18/(F18*30))</f>
-        <v>300000</v>
+        <v>8333.3333333333339</v>
       </c>
       <c r="I18">
         <f t="shared" ref="I18:I21" si="18">1-((C18-B18)/C18)</f>
-        <v>9.9999999999999978E-2</v>
+        <v>0.16666666666666663</v>
       </c>
       <c r="J18" s="4">
         <f t="shared" ref="J18:J21" si="19">E18*(I18/H18)*100000</f>
-        <v>3.2333333333333325</v>
+        <v>199.39999999999998</v>
       </c>
       <c r="K18" s="4">
         <f>(J18*(1.5+(F18-G18)/B18))</f>
-        <v>4.8499999999999988</v>
+        <v>299.09999999999997</v>
       </c>
       <c r="L18" s="3">
         <f>K18/J18</f>
@@ -1146,43 +1185,43 @@
         <v>6</v>
       </c>
       <c r="B19">
-        <v>30000</v>
+        <v>5000</v>
       </c>
       <c r="C19">
-        <v>300000</v>
+        <v>75000</v>
       </c>
       <c r="D19">
         <v>10000000</v>
       </c>
       <c r="E19">
-        <f t="shared" si="16"/>
-        <v>97</v>
+        <f>((D19-C19)/D19)*100</f>
+        <v>99.25</v>
       </c>
       <c r="F19">
         <v>100</v>
       </c>
       <c r="G19">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H19">
         <f t="shared" si="17"/>
-        <v>300000</v>
+        <v>8333.3333333333339</v>
       </c>
       <c r="I19">
         <f t="shared" si="18"/>
-        <v>9.9999999999999978E-2</v>
+        <v>6.6666666666666652E-2</v>
       </c>
       <c r="J19" s="4">
         <f t="shared" si="19"/>
-        <v>3.2333333333333325</v>
+        <v>79.399999999999977</v>
       </c>
       <c r="K19" s="4">
         <f>(J19*(1.5+(F19-G19)/B19))</f>
-        <v>4.8392222222222205</v>
+        <v>119.09999999999997</v>
       </c>
       <c r="L19" s="3">
         <f>K19/J19</f>
-        <v>1.4966666666666666</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -1190,43 +1229,43 @@
         <v>6</v>
       </c>
       <c r="B20">
-        <v>30000</v>
+        <v>5000</v>
       </c>
       <c r="C20">
-        <v>300000</v>
+        <v>150000</v>
       </c>
       <c r="D20">
         <v>10000000</v>
       </c>
       <c r="E20">
-        <f t="shared" si="16"/>
-        <v>97</v>
+        <f>((D20-C20)/D20)*100</f>
+        <v>98.5</v>
       </c>
       <c r="F20">
         <v>100</v>
       </c>
       <c r="G20">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H20">
         <f t="shared" si="17"/>
-        <v>300000</v>
+        <v>8333.3333333333339</v>
       </c>
       <c r="I20">
         <f t="shared" si="18"/>
-        <v>9.9999999999999978E-2</v>
+        <v>3.3333333333333326E-2</v>
       </c>
       <c r="J20" s="4">
         <f t="shared" si="19"/>
-        <v>3.2333333333333325</v>
+        <v>39.399999999999984</v>
       </c>
       <c r="K20" s="4">
         <f>(J20*(1.5+(F20-G20)/B20))</f>
-        <v>4.8284444444444432</v>
+        <v>59.09999999999998</v>
       </c>
       <c r="L20" s="3">
         <f t="shared" ref="L20:L21" si="20">K20/J20</f>
-        <v>1.4933333333333334</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -1234,7 +1273,7 @@
         <v>6</v>
       </c>
       <c r="B21">
-        <v>30000</v>
+        <v>5000</v>
       </c>
       <c r="C21">
         <v>300000</v>
@@ -1243,35 +1282,40 @@
         <v>10000000</v>
       </c>
       <c r="E21">
-        <f t="shared" si="16"/>
+        <f>((D21-C21)/D21)*100</f>
         <v>97</v>
       </c>
       <c r="F21">
         <v>100</v>
       </c>
       <c r="G21">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="H21">
         <f t="shared" si="17"/>
-        <v>300000</v>
+        <v>8333.3333333333339</v>
       </c>
       <c r="I21">
         <f t="shared" si="18"/>
-        <v>9.9999999999999978E-2</v>
+        <v>1.6666666666666718E-2</v>
       </c>
       <c r="J21" s="4">
         <f t="shared" si="19"/>
-        <v>3.2333333333333325</v>
+        <v>19.400000000000059</v>
       </c>
       <c r="K21" s="4">
         <f>(J21*(1.5+(F21-G21)/B21))</f>
-        <v>4.817666666666665</v>
+        <v>29.100000000000087</v>
       </c>
       <c r="L21" s="3">
         <f t="shared" si="20"/>
-        <v>1.4899999999999998</v>
-      </c>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="3"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -1284,11 +1328,11 @@
         <v>300000</v>
       </c>
       <c r="D23">
-        <v>350000</v>
+        <v>10000000</v>
       </c>
       <c r="E23">
         <f t="shared" ref="E23:E26" si="21">((D23-C23)/D23)*100</f>
-        <v>14.285714285714285</v>
+        <v>97</v>
       </c>
       <c r="F23">
         <v>100</v>
@@ -1306,11 +1350,11 @@
       </c>
       <c r="J23" s="4">
         <f t="shared" ref="J23:J26" si="24">E23*(I23/H23)*100000</f>
-        <v>0.47619047619047605</v>
+        <v>3.2333333333333325</v>
       </c>
       <c r="K23" s="4">
         <f>(J23*(1.5+(F23-G23)/B23))</f>
-        <v>0.71428571428571408</v>
+        <v>4.8499999999999988</v>
       </c>
       <c r="L23" s="3">
         <f>K23/J23</f>
@@ -1328,17 +1372,17 @@
         <v>300000</v>
       </c>
       <c r="D24">
-        <v>1000000</v>
+        <v>10000000</v>
       </c>
       <c r="E24">
         <f t="shared" si="21"/>
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="F24">
         <v>100</v>
       </c>
       <c r="G24">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H24">
         <f t="shared" si="22"/>
@@ -1350,15 +1394,15 @@
       </c>
       <c r="J24" s="4">
         <f t="shared" si="24"/>
-        <v>2.333333333333333</v>
+        <v>3.2333333333333325</v>
       </c>
       <c r="K24" s="4">
         <f>(J24*(1.5+(F24-G24)/B24))</f>
-        <v>3.4999999999999996</v>
+        <v>4.8392222222222205</v>
       </c>
       <c r="L24" s="3">
         <f>K24/J24</f>
-        <v>1.5</v>
+        <v>1.4966666666666666</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -1372,17 +1416,17 @@
         <v>300000</v>
       </c>
       <c r="D25">
-        <v>5000000</v>
+        <v>10000000</v>
       </c>
       <c r="E25">
         <f t="shared" si="21"/>
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F25">
         <v>100</v>
       </c>
       <c r="G25">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="H25">
         <f t="shared" si="22"/>
@@ -1394,15 +1438,15 @@
       </c>
       <c r="J25" s="4">
         <f t="shared" si="24"/>
-        <v>3.1333333333333329</v>
+        <v>3.2333333333333325</v>
       </c>
       <c r="K25" s="4">
         <f>(J25*(1.5+(F25-G25)/B25))</f>
-        <v>4.6999999999999993</v>
+        <v>4.8284444444444432</v>
       </c>
       <c r="L25" s="3">
         <f t="shared" ref="L25:L26" si="25">K25/J25</f>
-        <v>1.5</v>
+        <v>1.4933333333333334</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -1426,7 +1470,7 @@
         <v>100</v>
       </c>
       <c r="G26">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="H26">
         <f t="shared" si="22"/>
@@ -1442,10 +1486,186 @@
       </c>
       <c r="K26" s="4">
         <f>(J26*(1.5+(F26-G26)/B26))</f>
-        <v>4.8499999999999988</v>
+        <v>4.817666666666665</v>
       </c>
       <c r="L26" s="3">
         <f t="shared" si="25"/>
+        <v>1.4899999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28">
+        <v>30000</v>
+      </c>
+      <c r="C28">
+        <v>300000</v>
+      </c>
+      <c r="D28">
+        <v>350000</v>
+      </c>
+      <c r="E28">
+        <f t="shared" ref="E28:E31" si="26">((D28-C28)/D28)*100</f>
+        <v>14.285714285714285</v>
+      </c>
+      <c r="F28">
+        <v>100</v>
+      </c>
+      <c r="G28">
+        <v>100</v>
+      </c>
+      <c r="H28">
+        <f t="shared" ref="H28:H31" si="27">(B28*B28/(F28*30))</f>
+        <v>300000</v>
+      </c>
+      <c r="I28">
+        <f t="shared" ref="I28:I31" si="28">1-((C28-B28)/C28)</f>
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="J28" s="4">
+        <f t="shared" ref="J28:J31" si="29">E28*(I28/H28)*100000</f>
+        <v>0.47619047619047605</v>
+      </c>
+      <c r="K28" s="4">
+        <f>(J28*(1.5+(F28-G28)/B28))</f>
+        <v>0.71428571428571408</v>
+      </c>
+      <c r="L28" s="3">
+        <f>K28/J28</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29">
+        <v>30000</v>
+      </c>
+      <c r="C29">
+        <v>300000</v>
+      </c>
+      <c r="D29">
+        <v>1000000</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="26"/>
+        <v>70</v>
+      </c>
+      <c r="F29">
+        <v>100</v>
+      </c>
+      <c r="G29">
+        <v>100</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="27"/>
+        <v>300000</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="28"/>
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="J29" s="4">
+        <f t="shared" si="29"/>
+        <v>2.333333333333333</v>
+      </c>
+      <c r="K29" s="4">
+        <f>(J29*(1.5+(F29-G29)/B29))</f>
+        <v>3.4999999999999996</v>
+      </c>
+      <c r="L29" s="3">
+        <f>K29/J29</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30">
+        <v>30000</v>
+      </c>
+      <c r="C30">
+        <v>300000</v>
+      </c>
+      <c r="D30">
+        <v>5000000</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="26"/>
+        <v>94</v>
+      </c>
+      <c r="F30">
+        <v>100</v>
+      </c>
+      <c r="G30">
+        <v>100</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="27"/>
+        <v>300000</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="28"/>
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="J30" s="4">
+        <f t="shared" si="29"/>
+        <v>3.1333333333333329</v>
+      </c>
+      <c r="K30" s="4">
+        <f>(J30*(1.5+(F30-G30)/B30))</f>
+        <v>4.6999999999999993</v>
+      </c>
+      <c r="L30" s="3">
+        <f t="shared" ref="L30:L31" si="30">K30/J30</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31">
+        <v>30000</v>
+      </c>
+      <c r="C31">
+        <v>300000</v>
+      </c>
+      <c r="D31">
+        <v>10000000</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="26"/>
+        <v>97</v>
+      </c>
+      <c r="F31">
+        <v>100</v>
+      </c>
+      <c r="G31">
+        <v>100</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="27"/>
+        <v>300000</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="28"/>
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="J31" s="4">
+        <f t="shared" si="29"/>
+        <v>3.2333333333333325</v>
+      </c>
+      <c r="K31" s="4">
+        <f>(J31*(1.5+(F31-G31)/B31))</f>
+        <v>4.8499999999999988</v>
+      </c>
+      <c r="L31" s="3">
+        <f t="shared" si="30"/>
         <v>1.5</v>
       </c>
     </row>
